--- a/data/pg_pysurfline.xlsx
+++ b/data/pg_pysurfline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dalarroy\surf-prediction-project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B630A2-9DF6-4A93-A3CF-09C87935603D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B9A7081-23CC-46C9-8E37-0E25414BF74F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -596,7 +596,7 @@
   <dimension ref="A1:BJ7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD7"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/data/pg_pysurfline.xlsx
+++ b/data/pg_pysurfline.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BJ7"/>
+  <dimension ref="A1:BJ10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1913,6 +1913,588 @@
         <v>1010</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45629.25</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1733205600</v>
+      </c>
+      <c r="C8" t="n">
+        <v>100</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Chest to overhead</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1515.96012</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="N8" t="n">
+        <v>9</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.5659</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1499.25745</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>213.24</v>
+      </c>
+      <c r="R8" t="n">
+        <v>198.87</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0.3823</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>16.70267</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>61.26</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>54.34</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>31.52607</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>236.99269</v>
+      </c>
+      <c r="BE8" t="inlineStr">
+        <is>
+          <t>Offshore</t>
+        </is>
+      </c>
+      <c r="BF8" t="n">
+        <v>52.9637</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>11.78859</v>
+      </c>
+      <c r="BI8" t="inlineStr">
+        <is>
+          <t>NIGHT_CLEAR</t>
+        </is>
+      </c>
+      <c r="BJ8" t="n">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45629.5</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1733227200</v>
+      </c>
+      <c r="C9" t="n">
+        <v>100</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Chest to overhead</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1529.7148</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="N9" t="n">
+        <v>9</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.5703</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1515.77897</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>213.61</v>
+      </c>
+      <c r="R9" t="n">
+        <v>198.93</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0.3774</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>13.93583</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>63.21</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>56.435</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>29.85658</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>235.34402</v>
+      </c>
+      <c r="BE9" t="inlineStr">
+        <is>
+          <t>Offshore</t>
+        </is>
+      </c>
+      <c r="BF9" t="n">
+        <v>45.08364</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>13.07494</v>
+      </c>
+      <c r="BI9" t="inlineStr">
+        <is>
+          <t>BRIEF_SHOWERS_POSSIBLE</t>
+        </is>
+      </c>
+      <c r="BJ9" t="n">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45629.75</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1733248800</v>
+      </c>
+      <c r="C10" t="n">
+        <v>100</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Chest to overhead</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1650.63434</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="N10" t="n">
+        <v>10</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.7047</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1643.63298</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>207.36</v>
+      </c>
+      <c r="R10" t="n">
+        <v>191.545</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0.2555</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>7.00136</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>63.69</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>56.69</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>36.0915</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>206.30889</v>
+      </c>
+      <c r="BE10" t="inlineStr">
+        <is>
+          <t>Cross-shore</t>
+        </is>
+      </c>
+      <c r="BF10" t="n">
+        <v>45.77425</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>17.95797</v>
+      </c>
+      <c r="BI10" t="inlineStr">
+        <is>
+          <t>CLEAR</t>
+        </is>
+      </c>
+      <c r="BJ10" t="n">
+        <v>1013</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/pg_pysurfline.xlsx
+++ b/data/pg_pysurfline.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BJ10"/>
+  <dimension ref="A1:BJ13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2495,6 +2495,588 @@
         <v>1013</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45630.25</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1733292000</v>
+      </c>
+      <c r="C11" t="n">
+        <v>100</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Chest to 0.3m overhead</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="L11" t="n">
+        <v>828.51329</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="N11" t="n">
+        <v>9</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.1023</v>
+      </c>
+      <c r="P11" t="n">
+        <v>55.25358</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>217.73</v>
+      </c>
+      <c r="R11" t="n">
+        <v>206.325</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="U11" t="n">
+        <v>9</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.0863</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.539</v>
+      </c>
+      <c r="X11" t="n">
+        <v>56.9</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>49.735</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0.7911</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>772.7207100000001</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>162.09</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>154.39</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>13.5672</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>333.76747</v>
+      </c>
+      <c r="BE11" t="inlineStr">
+        <is>
+          <t>Offshore</t>
+        </is>
+      </c>
+      <c r="BF11" t="n">
+        <v>18.37682</v>
+      </c>
+      <c r="BG11" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH11" t="n">
+        <v>11.15871</v>
+      </c>
+      <c r="BI11" t="inlineStr">
+        <is>
+          <t>NIGHT_CLEAR</t>
+        </is>
+      </c>
+      <c r="BJ11" t="n">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45630.5</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1733313600</v>
+      </c>
+      <c r="C12" t="n">
+        <v>100</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Head to 0.6m overhead</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1018.68429</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="N12" t="n">
+        <v>9</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.0291</v>
+      </c>
+      <c r="P12" t="n">
+        <v>9.543200000000001</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>224.23</v>
+      </c>
+      <c r="R12" t="n">
+        <v>206.565</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="U12" t="n">
+        <v>9</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.07870000000000001</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.34251</v>
+      </c>
+      <c r="X12" t="n">
+        <v>55.71</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>49.41</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0.8711</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>1008.79858</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>158.54</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>150.855</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>26.2117</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>313.13675</v>
+      </c>
+      <c r="BE12" t="inlineStr">
+        <is>
+          <t>Offshore</t>
+        </is>
+      </c>
+      <c r="BF12" t="n">
+        <v>41.44275</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>18.27604</v>
+      </c>
+      <c r="BI12" t="inlineStr">
+        <is>
+          <t>CLEAR</t>
+        </is>
+      </c>
+      <c r="BJ12" t="n">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45630.75</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1733335200</v>
+      </c>
+      <c r="C13" t="n">
+        <v>56.66666666666666</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Head to 0.6m overhead</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="L13" t="n">
+        <v>904.67214</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N13" t="n">
+        <v>9</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>235.96</v>
+      </c>
+      <c r="R13" t="n">
+        <v>211.34</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="U13" t="n">
+        <v>9</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.079</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0.28822</v>
+      </c>
+      <c r="X13" t="n">
+        <v>55.89</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>50.095</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0.8981</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>904.38392</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>158.29</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>149.9</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>31.44737</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>313.8691</v>
+      </c>
+      <c r="BE13" t="inlineStr">
+        <is>
+          <t>Offshore</t>
+        </is>
+      </c>
+      <c r="BF13" t="n">
+        <v>40.0129</v>
+      </c>
+      <c r="BG13" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH13" t="n">
+        <v>25.4425</v>
+      </c>
+      <c r="BI13" t="inlineStr">
+        <is>
+          <t>CLEAR</t>
+        </is>
+      </c>
+      <c r="BJ13" t="n">
+        <v>1006</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/pg_pysurfline.xlsx
+++ b/data/pg_pysurfline.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BJ13"/>
+  <dimension ref="A1:BJ16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3077,6 +3077,588 @@
         <v>1006</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45631.25</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1733378400</v>
+      </c>
+      <c r="C14" t="n">
+        <v>100</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Waist to shoulder</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="L14" t="n">
+        <v>312.36781</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="U14" t="n">
+        <v>11</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.8022</v>
+      </c>
+      <c r="W14" t="n">
+        <v>295.85136</v>
+      </c>
+      <c r="X14" t="n">
+        <v>154.21</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>147.71</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0.0189</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0.72565</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>16.44</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>6.165000000000001</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>0.1696</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>15.7908</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>207.91</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>200.86</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>5</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>311.16</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>304.865</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>260.82</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>250.48</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>8.02792</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>323.46933</v>
+      </c>
+      <c r="BE14" t="inlineStr">
+        <is>
+          <t>Offshore</t>
+        </is>
+      </c>
+      <c r="BF14" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG14" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH14" t="n">
+        <v>14.87311</v>
+      </c>
+      <c r="BI14" t="inlineStr">
+        <is>
+          <t>NIGHT_CLEAR</t>
+        </is>
+      </c>
+      <c r="BJ14" t="n">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45631.5</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1733400000</v>
+      </c>
+      <c r="C15" t="n">
+        <v>100</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Waist to chest</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="L15" t="n">
+        <v>183.20488</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="U15" t="n">
+        <v>10</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0.6645</v>
+      </c>
+      <c r="W15" t="n">
+        <v>162.14041</v>
+      </c>
+      <c r="X15" t="n">
+        <v>153.23</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>146.365</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0.0905</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>3.48599</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>22.97</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>12.66</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>0.2272</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>17.57848</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>200.52</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>189.72</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>263.11</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>253.97</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>7.21467</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>45.4793</v>
+      </c>
+      <c r="BE15" t="inlineStr">
+        <is>
+          <t>Onshore</t>
+        </is>
+      </c>
+      <c r="BF15" t="n">
+        <v>7.21467</v>
+      </c>
+      <c r="BG15" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH15" t="n">
+        <v>16.52271</v>
+      </c>
+      <c r="BI15" t="inlineStr">
+        <is>
+          <t>CLEAR</t>
+        </is>
+      </c>
+      <c r="BJ15" t="n">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45631.75</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1733421600</v>
+      </c>
+      <c r="C16" t="n">
+        <v>100</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Thigh to waist</t>
+        </is>
+      </c>
+      <c r="J16" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="L16" t="n">
+        <v>123.13795</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="U16" t="n">
+        <v>10</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0.5636</v>
+      </c>
+      <c r="W16" t="n">
+        <v>93.61557000000001</v>
+      </c>
+      <c r="X16" t="n">
+        <v>150.59</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>144.265</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0.1229</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>2.77577</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>36.44</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>22.555</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>0.2966</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>26.74661</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>192.32</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>179.325</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>262.65</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>257.06</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>18.40401</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>309.0485</v>
+      </c>
+      <c r="BE16" t="inlineStr">
+        <is>
+          <t>Offshore</t>
+        </is>
+      </c>
+      <c r="BF16" t="n">
+        <v>27.37052</v>
+      </c>
+      <c r="BG16" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH16" t="n">
+        <v>23.42889</v>
+      </c>
+      <c r="BI16" t="inlineStr">
+        <is>
+          <t>THUNDER_SHOWERS</t>
+        </is>
+      </c>
+      <c r="BJ16" t="n">
+        <v>1004</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/pg_pysurfline.xlsx
+++ b/data/pg_pysurfline.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BJ16"/>
+  <dimension ref="A1:BJ19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3659,6 +3659,588 @@
         <v>1004</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45632.25</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1733464800</v>
+      </c>
+      <c r="C17" t="n">
+        <v>100</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G17" t="n">
+        <v>2</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Waist to chest</t>
+        </is>
+      </c>
+      <c r="J17" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="L17" t="n">
+        <v>285.77066</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0.3726</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>40.31791</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>145.31</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>141.64</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>0.059</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>1.47978</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>26.22</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>14.125</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>0.5485</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>243.97297</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>170.67</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>154.775</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>9.511279999999999</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>229.56949</v>
+      </c>
+      <c r="BE17" t="inlineStr">
+        <is>
+          <t>Offshore</t>
+        </is>
+      </c>
+      <c r="BF17" t="n">
+        <v>10.49232</v>
+      </c>
+      <c r="BG17" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH17" t="n">
+        <v>14.53332</v>
+      </c>
+      <c r="BI17" t="inlineStr">
+        <is>
+          <t>NIGHT_CLEAR</t>
+        </is>
+      </c>
+      <c r="BJ17" t="n">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45632.5</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1733486400</v>
+      </c>
+      <c r="C18" t="n">
+        <v>100</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Waist to chest</t>
+        </is>
+      </c>
+      <c r="J18" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="L18" t="n">
+        <v>165.13801</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="U18" t="n">
+        <v>9</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0.3474</v>
+      </c>
+      <c r="W18" t="n">
+        <v>125.84531</v>
+      </c>
+      <c r="X18" t="n">
+        <v>184.61</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>176.085</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0.2986</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>28.68015</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>145.91</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>142.555</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>0.08160000000000001</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>1.90212</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>35.05</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>25.305</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>5</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>0.2614</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>8.710430000000001</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>125.05</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>111.75</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>11.50255</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>170.56935</v>
+      </c>
+      <c r="BE18" t="inlineStr">
+        <is>
+          <t>Cross-shore</t>
+        </is>
+      </c>
+      <c r="BF18" t="n">
+        <v>11.50255</v>
+      </c>
+      <c r="BG18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH18" t="n">
+        <v>16.43639</v>
+      </c>
+      <c r="BI18" t="inlineStr">
+        <is>
+          <t>MOSTLY_CLOUDY</t>
+        </is>
+      </c>
+      <c r="BJ18" t="n">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45632.75</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1733508000</v>
+      </c>
+      <c r="C19" t="n">
+        <v>83.33333333333334</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G19" t="n">
+        <v>2</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Waist to shoulder</t>
+        </is>
+      </c>
+      <c r="J19" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="L19" t="n">
+        <v>500.40598</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="U19" t="n">
+        <v>9</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0.1738</v>
+      </c>
+      <c r="W19" t="n">
+        <v>15.83834</v>
+      </c>
+      <c r="X19" t="n">
+        <v>200.54</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>196.4</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>0.08890000000000001</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>1.07256</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>41.34</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>33.91500000000001</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0.7177</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>483.49508</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>155.16</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>140.36</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>24.89183</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>178.32969</v>
+      </c>
+      <c r="BE19" t="inlineStr">
+        <is>
+          <t>Cross-shore</t>
+        </is>
+      </c>
+      <c r="BF19" t="n">
+        <v>25.92151</v>
+      </c>
+      <c r="BG19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH19" t="n">
+        <v>15.85563</v>
+      </c>
+      <c r="BI19" t="inlineStr">
+        <is>
+          <t>CLOUDY</t>
+        </is>
+      </c>
+      <c r="BJ19" t="n">
+        <v>1007</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/pg_pysurfline.xlsx
+++ b/data/pg_pysurfline.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BJ19"/>
+  <dimension ref="A1:BJ22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4241,6 +4241,588 @@
         <v>1007</v>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45633.25</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1733551200</v>
+      </c>
+      <c r="C20" t="n">
+        <v>100</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Chest to head</t>
+        </is>
+      </c>
+      <c r="J20" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="L20" t="n">
+        <v>418.58868</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="N20" t="n">
+        <v>8</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.6048</v>
+      </c>
+      <c r="P20" t="n">
+        <v>403.30495</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>180.27</v>
+      </c>
+      <c r="R20" t="n">
+        <v>164.145</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="U20" t="n">
+        <v>6</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0.07439999999999999</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0.37681</v>
+      </c>
+      <c r="X20" t="n">
+        <v>47.37</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>41.08</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>0.2999</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>14.90692</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>146.94</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>142.535</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>33.96831</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>192.56021</v>
+      </c>
+      <c r="BE20" t="inlineStr">
+        <is>
+          <t>Cross-shore</t>
+        </is>
+      </c>
+      <c r="BF20" t="n">
+        <v>39.63099</v>
+      </c>
+      <c r="BG20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH20" t="n">
+        <v>10.78018</v>
+      </c>
+      <c r="BI20" t="inlineStr">
+        <is>
+          <t>NIGHT_LIGHT_SHOWERS</t>
+        </is>
+      </c>
+      <c r="BJ20" t="n">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45633.5</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1733572800</v>
+      </c>
+      <c r="C21" t="n">
+        <v>100</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G21" t="n">
+        <v>2</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Waist to shoulder</t>
+        </is>
+      </c>
+      <c r="J21" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="L21" t="n">
+        <v>366.80335</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="N21" t="n">
+        <v>8</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.574</v>
+      </c>
+      <c r="P21" t="n">
+        <v>344.18091</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>192.43</v>
+      </c>
+      <c r="R21" t="n">
+        <v>174.62</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>8</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>0.09180000000000001</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>0.51088</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>50.17</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>44.505</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>0.3099</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>22.11156</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>174.77</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>170.665</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>29.41793</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>218.84222</v>
+      </c>
+      <c r="BE21" t="inlineStr">
+        <is>
+          <t>Offshore</t>
+        </is>
+      </c>
+      <c r="BF21" t="n">
+        <v>40.72277</v>
+      </c>
+      <c r="BG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH21" t="n">
+        <v>13.05004</v>
+      </c>
+      <c r="BI21" t="inlineStr">
+        <is>
+          <t>CLOUDY</t>
+        </is>
+      </c>
+      <c r="BJ21" t="n">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45633.75</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1733594400</v>
+      </c>
+      <c r="C22" t="n">
+        <v>100</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G22" t="n">
+        <v>2</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Waist to chest</t>
+        </is>
+      </c>
+      <c r="J22" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L22" t="n">
+        <v>297.53568</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="N22" t="n">
+        <v>7</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.3364</v>
+      </c>
+      <c r="P22" t="n">
+        <v>249.93984</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>216.21</v>
+      </c>
+      <c r="R22" t="n">
+        <v>197.71</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>8</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>0.1095</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>0.37351</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>52.19</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>47.595</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>0.5193</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>47.22233</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>170.15</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>164.865</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>37.28158</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>205.45265</v>
+      </c>
+      <c r="BE22" t="inlineStr">
+        <is>
+          <t>Cross-shore</t>
+        </is>
+      </c>
+      <c r="BF22" t="n">
+        <v>44.64</v>
+      </c>
+      <c r="BG22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH22" t="n">
+        <v>16.08324</v>
+      </c>
+      <c r="BI22" t="inlineStr">
+        <is>
+          <t>CLEAR</t>
+        </is>
+      </c>
+      <c r="BJ22" t="n">
+        <v>1016</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/pg_pysurfline.xlsx
+++ b/data/pg_pysurfline.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BJ22"/>
+  <dimension ref="A1:BJ25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4823,6 +4823,588 @@
         <v>1016</v>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45634.25</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1733637600</v>
+      </c>
+      <c r="C23" t="n">
+        <v>100</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Chest to 0.3m overhead</t>
+        </is>
+      </c>
+      <c r="J23" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="K23" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1171.49428</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="U23" t="n">
+        <v>8</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0.1193</v>
+      </c>
+      <c r="W23" t="n">
+        <v>1.6217</v>
+      </c>
+      <c r="X23" t="n">
+        <v>49.31</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>45.33000000000001</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>239.01</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>229.74</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>0.8584000000000001</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>1169.87258</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>174.55</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>164.945</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>17.54054</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>202.24206</v>
+      </c>
+      <c r="BE23" t="inlineStr">
+        <is>
+          <t>Cross-shore</t>
+        </is>
+      </c>
+      <c r="BF23" t="n">
+        <v>23.77299</v>
+      </c>
+      <c r="BG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH23" t="n">
+        <v>9.52332</v>
+      </c>
+      <c r="BI23" t="inlineStr">
+        <is>
+          <t>NIGHT_CLEAR</t>
+        </is>
+      </c>
+      <c r="BJ23" t="n">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45634.5</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1733659200</v>
+      </c>
+      <c r="C24" t="n">
+        <v>100</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G24" t="n">
+        <v>2</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Chest to overhead</t>
+        </is>
+      </c>
+      <c r="J24" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="K24" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1169.36195</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="U24" t="n">
+        <v>8</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0.1256</v>
+      </c>
+      <c r="W24" t="n">
+        <v>1.38702</v>
+      </c>
+      <c r="X24" t="n">
+        <v>48.35</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>44.37</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>0.8409</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>1167.97493</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>184.14</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>169.935</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>9.87537</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>192.055</v>
+      </c>
+      <c r="BE24" t="inlineStr">
+        <is>
+          <t>Cross-shore</t>
+        </is>
+      </c>
+      <c r="BF24" t="n">
+        <v>12.64891</v>
+      </c>
+      <c r="BG24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH24" t="n">
+        <v>11.81211</v>
+      </c>
+      <c r="BI24" t="inlineStr">
+        <is>
+          <t>CLEAR</t>
+        </is>
+      </c>
+      <c r="BJ24" t="n">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45634.75</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1733680800</v>
+      </c>
+      <c r="C25" t="n">
+        <v>100</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G25" t="n">
+        <v>2</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Chest to head</t>
+        </is>
+      </c>
+      <c r="J25" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="K25" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="L25" t="n">
+        <v>834.2535800000001</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="U25" t="n">
+        <v>8</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0.1114</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0.77794</v>
+      </c>
+      <c r="X25" t="n">
+        <v>47.88</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>43.69</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>0.8532999999999999</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>833.47564</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>182.26</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>168.81</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>18.02628</v>
+      </c>
+      <c r="BD25" t="n">
+        <v>103.30355</v>
+      </c>
+      <c r="BE25" t="inlineStr">
+        <is>
+          <t>Onshore</t>
+        </is>
+      </c>
+      <c r="BF25" t="n">
+        <v>18.02628</v>
+      </c>
+      <c r="BG25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH25" t="n">
+        <v>13.34072</v>
+      </c>
+      <c r="BI25" t="inlineStr">
+        <is>
+          <t>CLEAR</t>
+        </is>
+      </c>
+      <c r="BJ25" t="n">
+        <v>1019</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/pg_pysurfline.xlsx
+++ b/data/pg_pysurfline.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BJ25"/>
+  <dimension ref="A1:BJ28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5405,6 +5405,588 @@
         <v>1019</v>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45635.25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1733724000</v>
+      </c>
+      <c r="C26" t="n">
+        <v>100</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G26" t="n">
+        <v>2</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Thigh to stomach</t>
+        </is>
+      </c>
+      <c r="J26" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="K26" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L26" t="n">
+        <v>282.76956</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="N26" t="n">
+        <v>9</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.8522</v>
+      </c>
+      <c r="P26" t="n">
+        <v>282.40524</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>172.53</v>
+      </c>
+      <c r="R26" t="n">
+        <v>160.175</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="U26" t="n">
+        <v>8</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0.1121</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0.36432</v>
+      </c>
+      <c r="X26" t="n">
+        <v>48.86</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>44.125</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>340.15</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>325.655</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>22.23621</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>337.89111</v>
+      </c>
+      <c r="BE26" t="inlineStr">
+        <is>
+          <t>Offshore</t>
+        </is>
+      </c>
+      <c r="BF26" t="n">
+        <v>35.2807</v>
+      </c>
+      <c r="BG26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH26" t="n">
+        <v>9.109859999999999</v>
+      </c>
+      <c r="BI26" t="inlineStr">
+        <is>
+          <t>NIGHT_CLEAR</t>
+        </is>
+      </c>
+      <c r="BJ26" t="n">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45635.5</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1733745600</v>
+      </c>
+      <c r="C27" t="n">
+        <v>100</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G27" t="n">
+        <v>2</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Thigh to waist</t>
+        </is>
+      </c>
+      <c r="J27" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="L27" t="n">
+        <v>159.83861</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="N27" t="n">
+        <v>8</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.8502999999999999</v>
+      </c>
+      <c r="P27" t="n">
+        <v>159.56415</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>165.53</v>
+      </c>
+      <c r="R27" t="n">
+        <v>154.4</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="U27" t="n">
+        <v>7</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0.1108</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0.27446</v>
+      </c>
+      <c r="X27" t="n">
+        <v>49.86</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>44.875</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>331.05</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>316.045</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC27" t="n">
+        <v>25.04661</v>
+      </c>
+      <c r="BD27" t="n">
+        <v>331.41986</v>
+      </c>
+      <c r="BE27" t="inlineStr">
+        <is>
+          <t>Offshore</t>
+        </is>
+      </c>
+      <c r="BF27" t="n">
+        <v>33.84473</v>
+      </c>
+      <c r="BG27" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH27" t="n">
+        <v>14.89969</v>
+      </c>
+      <c r="BI27" t="inlineStr">
+        <is>
+          <t>CLEAR</t>
+        </is>
+      </c>
+      <c r="BJ27" t="n">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45635.75</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1733767200</v>
+      </c>
+      <c r="C28" t="n">
+        <v>100</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G28" t="n">
+        <v>2</v>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Thigh to waist</t>
+        </is>
+      </c>
+      <c r="J28" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="L28" t="n">
+        <v>133.4169</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N28" t="n">
+        <v>8</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.8537</v>
+      </c>
+      <c r="P28" t="n">
+        <v>133.13471</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>163.27</v>
+      </c>
+      <c r="R28" t="n">
+        <v>153.75</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="U28" t="n">
+        <v>7</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0.1183</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0.28219</v>
+      </c>
+      <c r="X28" t="n">
+        <v>50.12</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>45.055</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>284.79</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>276.07</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ28" t="n">
+        <v>358.03</v>
+      </c>
+      <c r="BA28" t="n">
+        <v>345.29</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC28" t="n">
+        <v>28.70773</v>
+      </c>
+      <c r="BD28" t="n">
+        <v>49.96437</v>
+      </c>
+      <c r="BE28" t="inlineStr">
+        <is>
+          <t>Onshore</t>
+        </is>
+      </c>
+      <c r="BF28" t="n">
+        <v>28.70773</v>
+      </c>
+      <c r="BG28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH28" t="n">
+        <v>18.72439</v>
+      </c>
+      <c r="BI28" t="inlineStr">
+        <is>
+          <t>CLEAR</t>
+        </is>
+      </c>
+      <c r="BJ28" t="n">
+        <v>1014</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/pg_pysurfline.xlsx
+++ b/data/pg_pysurfline.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BJ28"/>
+  <dimension ref="A1:BJ31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5987,6 +5987,588 @@
         <v>1014</v>
       </c>
     </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45636.25</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1733810400</v>
+      </c>
+      <c r="C29" t="n">
+        <v>86.66666666666669</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G29" t="n">
+        <v>2</v>
+      </c>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Thigh to waist</t>
+        </is>
+      </c>
+      <c r="J29" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="L29" t="n">
+        <v>158.69136</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N29" t="n">
+        <v>5</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R29" t="n">
+        <v>-14.275</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="U29" t="n">
+        <v>9</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0.9537</v>
+      </c>
+      <c r="W29" t="n">
+        <v>158.69136</v>
+      </c>
+      <c r="X29" t="n">
+        <v>164.07</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>156.48</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>263.36</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>257.435</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC29" t="n">
+        <v>20.77273</v>
+      </c>
+      <c r="BD29" t="n">
+        <v>334.28008</v>
+      </c>
+      <c r="BE29" t="inlineStr">
+        <is>
+          <t>Offshore</t>
+        </is>
+      </c>
+      <c r="BF29" t="n">
+        <v>36.72042</v>
+      </c>
+      <c r="BG29" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH29" t="n">
+        <v>13.46154</v>
+      </c>
+      <c r="BI29" t="inlineStr">
+        <is>
+          <t>NIGHT_CLEAR</t>
+        </is>
+      </c>
+      <c r="BJ29" t="n">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45636.5</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1733832000</v>
+      </c>
+      <c r="C30" t="n">
+        <v>100</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G30" t="n">
+        <v>2</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Thigh to waist</t>
+        </is>
+      </c>
+      <c r="J30" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="L30" t="n">
+        <v>126.75545</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="N30" t="n">
+        <v>5</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="R30" t="n">
+        <v>-18.37</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="U30" t="n">
+        <v>9</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0.8442</v>
+      </c>
+      <c r="W30" t="n">
+        <v>126.59868</v>
+      </c>
+      <c r="X30" t="n">
+        <v>166.15</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>158.515</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>9</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>0.1133</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>0.15677</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>58.2</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>53.675</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC30" t="n">
+        <v>15.09616</v>
+      </c>
+      <c r="BD30" t="n">
+        <v>319.33652</v>
+      </c>
+      <c r="BE30" t="inlineStr">
+        <is>
+          <t>Offshore</t>
+        </is>
+      </c>
+      <c r="BF30" t="n">
+        <v>21.60568</v>
+      </c>
+      <c r="BG30" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH30" t="n">
+        <v>19.16545</v>
+      </c>
+      <c r="BI30" t="inlineStr">
+        <is>
+          <t>CLEAR</t>
+        </is>
+      </c>
+      <c r="BJ30" t="n">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45636.75</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1733853600</v>
+      </c>
+      <c r="C31" t="n">
+        <v>100</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G31" t="n">
+        <v>2</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Thigh to waist</t>
+        </is>
+      </c>
+      <c r="J31" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="L31" t="n">
+        <v>122.98159</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="N31" t="n">
+        <v>4</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>8.23</v>
+      </c>
+      <c r="R31" t="n">
+        <v>-7.414999999999999</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="U31" t="n">
+        <v>8</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0.7519</v>
+      </c>
+      <c r="W31" t="n">
+        <v>122.23007</v>
+      </c>
+      <c r="X31" t="n">
+        <v>162.94</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>149.565</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>9</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>0.1368</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>0.62286</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>54.61</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX31" t="n">
+        <v>0.0872</v>
+      </c>
+      <c r="AY31" t="n">
+        <v>0.12866</v>
+      </c>
+      <c r="AZ31" t="n">
+        <v>50.09</v>
+      </c>
+      <c r="BA31" t="n">
+        <v>45.565</v>
+      </c>
+      <c r="BB31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC31" t="n">
+        <v>27.76018</v>
+      </c>
+      <c r="BD31" t="n">
+        <v>108.69691</v>
+      </c>
+      <c r="BE31" t="inlineStr">
+        <is>
+          <t>Onshore</t>
+        </is>
+      </c>
+      <c r="BF31" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="BG31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH31" t="n">
+        <v>20.77971</v>
+      </c>
+      <c r="BI31" t="inlineStr">
+        <is>
+          <t>CLEAR</t>
+        </is>
+      </c>
+      <c r="BJ31" t="n">
+        <v>1012</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/pg_pysurfline.xlsx
+++ b/data/pg_pysurfline.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BJ31"/>
+  <dimension ref="A1:BJ34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6569,6 +6569,588 @@
         <v>1012</v>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45637.25</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1733896800</v>
+      </c>
+      <c r="C32" t="n">
+        <v>100</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G32" t="n">
+        <v>2</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Thigh to waist</t>
+        </is>
+      </c>
+      <c r="J32" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="L32" t="n">
+        <v>64.62421999999999</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="N32" t="n">
+        <v>4</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.3464</v>
+      </c>
+      <c r="P32" t="n">
+        <v>8.10425</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>78.98999999999999</v>
+      </c>
+      <c r="R32" t="n">
+        <v>59.88499999999999</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="U32" t="n">
+        <v>8</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0.4632</v>
+      </c>
+      <c r="W32" t="n">
+        <v>54.32762</v>
+      </c>
+      <c r="X32" t="n">
+        <v>174.2</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>166.295</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AW32" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX32" t="n">
+        <v>0.1625</v>
+      </c>
+      <c r="AY32" t="n">
+        <v>2.19235</v>
+      </c>
+      <c r="AZ32" t="n">
+        <v>52.54</v>
+      </c>
+      <c r="BA32" t="n">
+        <v>49.115</v>
+      </c>
+      <c r="BB32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC32" t="n">
+        <v>13.13309</v>
+      </c>
+      <c r="BD32" t="n">
+        <v>10.44556</v>
+      </c>
+      <c r="BE32" t="inlineStr">
+        <is>
+          <t>Cross-shore</t>
+        </is>
+      </c>
+      <c r="BF32" t="n">
+        <v>16.93283</v>
+      </c>
+      <c r="BG32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH32" t="n">
+        <v>16.15336</v>
+      </c>
+      <c r="BI32" t="inlineStr">
+        <is>
+          <t>NIGHT_CLEAR</t>
+        </is>
+      </c>
+      <c r="BJ32" t="n">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45637.5</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1733918400</v>
+      </c>
+      <c r="C33" t="n">
+        <v>100</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G33" t="n">
+        <v>2</v>
+      </c>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Thigh to waist</t>
+        </is>
+      </c>
+      <c r="J33" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="L33" t="n">
+        <v>46.34964</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="N33" t="n">
+        <v>4</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.2701</v>
+      </c>
+      <c r="P33" t="n">
+        <v>4.11886</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>60.23</v>
+      </c>
+      <c r="R33" t="n">
+        <v>40.83499999999999</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="U33" t="n">
+        <v>8</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0.4711</v>
+      </c>
+      <c r="W33" t="n">
+        <v>40.01519</v>
+      </c>
+      <c r="X33" t="n">
+        <v>173.16</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>164.87</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>0.076</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>0.36603</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>204.11</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>201.515</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AW33" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX33" t="n">
+        <v>0.1616</v>
+      </c>
+      <c r="AY33" t="n">
+        <v>1.84956</v>
+      </c>
+      <c r="AZ33" t="n">
+        <v>51.75</v>
+      </c>
+      <c r="BA33" t="n">
+        <v>48.37</v>
+      </c>
+      <c r="BB33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC33" t="n">
+        <v>10.51551</v>
+      </c>
+      <c r="BD33" t="n">
+        <v>308.9129</v>
+      </c>
+      <c r="BE33" t="inlineStr">
+        <is>
+          <t>Offshore</t>
+        </is>
+      </c>
+      <c r="BF33" t="n">
+        <v>15.18177</v>
+      </c>
+      <c r="BG33" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH33" t="n">
+        <v>21.3752</v>
+      </c>
+      <c r="BI33" t="inlineStr">
+        <is>
+          <t>CLEAR</t>
+        </is>
+      </c>
+      <c r="BJ33" t="n">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45637.75</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1733940000</v>
+      </c>
+      <c r="C34" t="n">
+        <v>100</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G34" t="n">
+        <v>2</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Knee to thigh</t>
+        </is>
+      </c>
+      <c r="J34" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="L34" t="n">
+        <v>29.901</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="N34" t="n">
+        <v>4</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0.2488</v>
+      </c>
+      <c r="P34" t="n">
+        <v>2.47265</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>65.97</v>
+      </c>
+      <c r="R34" t="n">
+        <v>46.58</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="U34" t="n">
+        <v>7</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0.449</v>
+      </c>
+      <c r="W34" t="n">
+        <v>24.58674</v>
+      </c>
+      <c r="X34" t="n">
+        <v>167.44</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>159.035</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>0.1195</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>1.06365</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>201.12</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>197.725</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AW34" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX34" t="n">
+        <v>0.1613</v>
+      </c>
+      <c r="AY34" t="n">
+        <v>1.77796</v>
+      </c>
+      <c r="AZ34" t="n">
+        <v>51.49</v>
+      </c>
+      <c r="BA34" t="n">
+        <v>47.895</v>
+      </c>
+      <c r="BB34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC34" t="n">
+        <v>18.12159</v>
+      </c>
+      <c r="BD34" t="n">
+        <v>90.0942</v>
+      </c>
+      <c r="BE34" t="inlineStr">
+        <is>
+          <t>Onshore</t>
+        </is>
+      </c>
+      <c r="BF34" t="n">
+        <v>18.1234</v>
+      </c>
+      <c r="BG34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH34" t="n">
+        <v>20.85803</v>
+      </c>
+      <c r="BI34" t="inlineStr">
+        <is>
+          <t>CLOUDY</t>
+        </is>
+      </c>
+      <c r="BJ34" t="n">
+        <v>1013</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/pg_pysurfline.xlsx
+++ b/data/pg_pysurfline.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BJ34"/>
+  <dimension ref="A1:BJ37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7151,6 +7151,588 @@
         <v>1013</v>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45638.25</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1733983200</v>
+      </c>
+      <c r="C35" t="n">
+        <v>100</v>
+      </c>
+      <c r="D35" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G35" t="n">
+        <v>2</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Knee to thigh</t>
+        </is>
+      </c>
+      <c r="J35" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="L35" t="n">
+        <v>24.22337</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="N35" t="n">
+        <v>5</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.2453</v>
+      </c>
+      <c r="P35" t="n">
+        <v>8.88585</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>42.48</v>
+      </c>
+      <c r="R35" t="n">
+        <v>26.37</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="U35" t="n">
+        <v>7</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0.4078</v>
+      </c>
+      <c r="W35" t="n">
+        <v>13.59738</v>
+      </c>
+      <c r="X35" t="n">
+        <v>158.7</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>151.355</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>0.1485</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>1.16021</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>51.46</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>47.795</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>0.0698</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>0.2154</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>203.39</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>200.1</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>16</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>0.1176</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>0.36453</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>175.39</v>
+      </c>
+      <c r="AT35" t="n">
+        <v>169.575</v>
+      </c>
+      <c r="AU35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC35" t="n">
+        <v>16.86707</v>
+      </c>
+      <c r="BD35" t="n">
+        <v>25.47427</v>
+      </c>
+      <c r="BE35" t="inlineStr">
+        <is>
+          <t>Cross-shore</t>
+        </is>
+      </c>
+      <c r="BF35" t="n">
+        <v>37.44</v>
+      </c>
+      <c r="BG35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH35" t="n">
+        <v>17.40918</v>
+      </c>
+      <c r="BI35" t="inlineStr">
+        <is>
+          <t>NIGHT_CLEAR</t>
+        </is>
+      </c>
+      <c r="BJ35" t="n">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45638.5</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1734004800</v>
+      </c>
+      <c r="C36" t="n">
+        <v>100</v>
+      </c>
+      <c r="D36" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G36" t="n">
+        <v>2</v>
+      </c>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Thigh to waist</t>
+        </is>
+      </c>
+      <c r="J36" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="L36" t="n">
+        <v>45.17035</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="N36" t="n">
+        <v>5</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.3575</v>
+      </c>
+      <c r="P36" t="n">
+        <v>30.3494</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>38.05</v>
+      </c>
+      <c r="R36" t="n">
+        <v>22.82</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="U36" t="n">
+        <v>7</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0.4568</v>
+      </c>
+      <c r="W36" t="n">
+        <v>14.57334</v>
+      </c>
+      <c r="X36" t="n">
+        <v>155.84</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>148.355</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>0.054</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>0.06686</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>204.27</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>201.625</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>0.1076</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>0.18075</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>176.66</v>
+      </c>
+      <c r="AT36" t="n">
+        <v>170.49</v>
+      </c>
+      <c r="AU36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC36" t="n">
+        <v>26.08311</v>
+      </c>
+      <c r="BD36" t="n">
+        <v>26.45623</v>
+      </c>
+      <c r="BE36" t="inlineStr">
+        <is>
+          <t>Cross-shore</t>
+        </is>
+      </c>
+      <c r="BF36" t="n">
+        <v>40.71699</v>
+      </c>
+      <c r="BG36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH36" t="n">
+        <v>19.54234</v>
+      </c>
+      <c r="BI36" t="inlineStr">
+        <is>
+          <t>CLEAR</t>
+        </is>
+      </c>
+      <c r="BJ36" t="n">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45638.75</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1734026400</v>
+      </c>
+      <c r="C37" t="n">
+        <v>100</v>
+      </c>
+      <c r="D37" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G37" t="n">
+        <v>2</v>
+      </c>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Thigh to stomach</t>
+        </is>
+      </c>
+      <c r="J37" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="K37" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="L37" t="n">
+        <v>97.09764</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="N37" t="n">
+        <v>6</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0.3954</v>
+      </c>
+      <c r="P37" t="n">
+        <v>89.98693</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>40.13</v>
+      </c>
+      <c r="R37" t="n">
+        <v>25.685</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="U37" t="n">
+        <v>7</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0.3071</v>
+      </c>
+      <c r="W37" t="n">
+        <v>6.15119</v>
+      </c>
+      <c r="X37" t="n">
+        <v>153.41</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>145.68</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>0.0328</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>0.01846</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>202.57</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>199.62</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AP37" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>0.0936</v>
+      </c>
+      <c r="AR37" t="n">
+        <v>0.20877</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>175.78</v>
+      </c>
+      <c r="AT37" t="n">
+        <v>169.955</v>
+      </c>
+      <c r="AU37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV37" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AW37" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX37" t="n">
+        <v>0.1613</v>
+      </c>
+      <c r="AY37" t="n">
+        <v>0.73229</v>
+      </c>
+      <c r="AZ37" t="n">
+        <v>149.52</v>
+      </c>
+      <c r="BA37" t="n">
+        <v>146.075</v>
+      </c>
+      <c r="BB37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC37" t="n">
+        <v>41.62316</v>
+      </c>
+      <c r="BD37" t="n">
+        <v>52.4692</v>
+      </c>
+      <c r="BE37" t="inlineStr">
+        <is>
+          <t>Onshore</t>
+        </is>
+      </c>
+      <c r="BF37" t="n">
+        <v>58.00729</v>
+      </c>
+      <c r="BG37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH37" t="n">
+        <v>18.81889</v>
+      </c>
+      <c r="BI37" t="inlineStr">
+        <is>
+          <t>BRIEF_SHOWERS</t>
+        </is>
+      </c>
+      <c r="BJ37" t="n">
+        <v>1009</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/pg_pysurfline.xlsx
+++ b/data/pg_pysurfline.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BJ37"/>
+  <dimension ref="A1:BJ40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7733,6 +7733,588 @@
         <v>1009</v>
       </c>
     </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45639.25</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1734069600</v>
+      </c>
+      <c r="C38" t="n">
+        <v>96.66666666666669</v>
+      </c>
+      <c r="D38" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G38" t="n">
+        <v>2</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Waist to shoulder</t>
+        </is>
+      </c>
+      <c r="J38" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="K38" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="L38" t="n">
+        <v>312.14704</v>
+      </c>
+      <c r="M38" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="N38" t="n">
+        <v>7</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0.5726</v>
+      </c>
+      <c r="P38" t="n">
+        <v>309.40679</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>36.77</v>
+      </c>
+      <c r="R38" t="n">
+        <v>21.19</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>0.2791</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>2.52615</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>153.6</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>14</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>0.1098</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>0.2141</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>180.41</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>174.295</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC38" t="n">
+        <v>14.07079</v>
+      </c>
+      <c r="BD38" t="n">
+        <v>2.10987</v>
+      </c>
+      <c r="BE38" t="inlineStr">
+        <is>
+          <t>Cross-shore</t>
+        </is>
+      </c>
+      <c r="BF38" t="n">
+        <v>32.40489</v>
+      </c>
+      <c r="BG38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH38" t="n">
+        <v>16.95953</v>
+      </c>
+      <c r="BI38" t="inlineStr">
+        <is>
+          <t>NIGHT_BRIEF_SHOWERS_POSSIBLE</t>
+        </is>
+      </c>
+      <c r="BJ38" t="n">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45639.5</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1734091200</v>
+      </c>
+      <c r="C39" t="n">
+        <v>100</v>
+      </c>
+      <c r="D39" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G39" t="n">
+        <v>2</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Waist to chest</t>
+        </is>
+      </c>
+      <c r="J39" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="K39" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="L39" t="n">
+        <v>258.82557</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="N39" t="n">
+        <v>7</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.6494</v>
+      </c>
+      <c r="P39" t="n">
+        <v>257.25878</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="R39" t="n">
+        <v>26.795</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>0.2255</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>1.45296</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>154.3</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>149.805</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>0.0896</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>0.11383</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>182.33</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>176.355</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC39" t="n">
+        <v>4.81691</v>
+      </c>
+      <c r="BD39" t="n">
+        <v>106.48988</v>
+      </c>
+      <c r="BE39" t="inlineStr">
+        <is>
+          <t>Onshore</t>
+        </is>
+      </c>
+      <c r="BF39" t="n">
+        <v>5.7843</v>
+      </c>
+      <c r="BG39" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH39" t="n">
+        <v>16.58559</v>
+      </c>
+      <c r="BI39" t="inlineStr">
+        <is>
+          <t>RAIN_AND_FOG</t>
+        </is>
+      </c>
+      <c r="BJ39" t="n">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45639.75</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1734112800</v>
+      </c>
+      <c r="C40" t="n">
+        <v>100</v>
+      </c>
+      <c r="D40" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G40" t="n">
+        <v>2</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Waist to chest</t>
+        </is>
+      </c>
+      <c r="J40" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="K40" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="L40" t="n">
+        <v>236.77175</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="N40" t="n">
+        <v>8</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0.7374000000000001</v>
+      </c>
+      <c r="P40" t="n">
+        <v>235.87009</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>52.34</v>
+      </c>
+      <c r="R40" t="n">
+        <v>37.905</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>0.2109</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>0.90166</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>154.95</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>149.45</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC40" t="n">
+        <v>13.71759</v>
+      </c>
+      <c r="BD40" t="n">
+        <v>80.99200999999999</v>
+      </c>
+      <c r="BE40" t="inlineStr">
+        <is>
+          <t>Onshore</t>
+        </is>
+      </c>
+      <c r="BF40" t="n">
+        <v>13.71759</v>
+      </c>
+      <c r="BG40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH40" t="n">
+        <v>18.8693</v>
+      </c>
+      <c r="BI40" t="inlineStr">
+        <is>
+          <t>MOSTLY_CLOUDY</t>
+        </is>
+      </c>
+      <c r="BJ40" t="n">
+        <v>1011</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/pg_pysurfline.xlsx
+++ b/data/pg_pysurfline.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BJ40"/>
+  <dimension ref="A1:BJ43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8315,6 +8315,588 @@
         <v>1011</v>
       </c>
     </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45640.25</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1734156000</v>
+      </c>
+      <c r="C41" t="n">
+        <v>96.66666666666669</v>
+      </c>
+      <c r="D41" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G41" t="n">
+        <v>2</v>
+      </c>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Thigh to stomach</t>
+        </is>
+      </c>
+      <c r="J41" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="K41" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="L41" t="n">
+        <v>210.97615</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="N41" t="n">
+        <v>8</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0.8139999999999999</v>
+      </c>
+      <c r="P41" t="n">
+        <v>210.81316</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>61.57</v>
+      </c>
+      <c r="R41" t="n">
+        <v>49.825</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="U41" t="n">
+        <v>7</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0.1315</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0.15388</v>
+      </c>
+      <c r="X41" t="n">
+        <v>153.65</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>147.81</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>0.0156</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>0.00911</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>218.07</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>204.795</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC41" t="n">
+        <v>10.6338</v>
+      </c>
+      <c r="BD41" t="n">
+        <v>147.45937</v>
+      </c>
+      <c r="BE41" t="inlineStr">
+        <is>
+          <t>Onshore</t>
+        </is>
+      </c>
+      <c r="BF41" t="n">
+        <v>15.13669</v>
+      </c>
+      <c r="BG41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH41" t="n">
+        <v>16.44912</v>
+      </c>
+      <c r="BI41" t="inlineStr">
+        <is>
+          <t>NIGHT_CLEAR</t>
+        </is>
+      </c>
+      <c r="BJ41" t="n">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45640.5</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1734177600</v>
+      </c>
+      <c r="C42" t="n">
+        <v>100</v>
+      </c>
+      <c r="D42" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G42" t="n">
+        <v>2</v>
+      </c>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Thigh to stomach</t>
+        </is>
+      </c>
+      <c r="J42" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="K42" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="L42" t="n">
+        <v>261.93137</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="N42" t="n">
+        <v>8</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0.8384</v>
+      </c>
+      <c r="P42" t="n">
+        <v>261.87055</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="R42" t="n">
+        <v>53.27</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="n">
+        <v>0</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>0.0306</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>0.01536</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>210.22</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>200.62</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AP42" t="n">
+        <v>10</v>
+      </c>
+      <c r="AQ42" t="n">
+        <v>0.0955</v>
+      </c>
+      <c r="AR42" t="n">
+        <v>0.04546</v>
+      </c>
+      <c r="AS42" t="n">
+        <v>140.64</v>
+      </c>
+      <c r="AT42" t="n">
+        <v>131.95</v>
+      </c>
+      <c r="AU42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC42" t="n">
+        <v>20.5077</v>
+      </c>
+      <c r="BD42" t="n">
+        <v>174.11901</v>
+      </c>
+      <c r="BE42" t="inlineStr">
+        <is>
+          <t>Cross-shore</t>
+        </is>
+      </c>
+      <c r="BF42" t="n">
+        <v>24.21584</v>
+      </c>
+      <c r="BG42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH42" t="n">
+        <v>16.91076</v>
+      </c>
+      <c r="BI42" t="inlineStr">
+        <is>
+          <t>CLOUDY</t>
+        </is>
+      </c>
+      <c r="BJ42" t="n">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45640.75</v>
+      </c>
+      <c r="B43" t="n">
+        <v>1734199200</v>
+      </c>
+      <c r="C43" t="n">
+        <v>100</v>
+      </c>
+      <c r="D43" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G43" t="n">
+        <v>2</v>
+      </c>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Waist to chest</t>
+        </is>
+      </c>
+      <c r="J43" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="K43" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="L43" t="n">
+        <v>381.65589</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="N43" t="n">
+        <v>10</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0.8007</v>
+      </c>
+      <c r="P43" t="n">
+        <v>381.55122</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>68.75</v>
+      </c>
+      <c r="R43" t="n">
+        <v>55.59</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="U43" t="n">
+        <v>7</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0.06519999999999999</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0.02381</v>
+      </c>
+      <c r="X43" t="n">
+        <v>153.93</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>147.745</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>0.0273</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>0.00978</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>206.74</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>200.395</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AP43" t="n">
+        <v>9</v>
+      </c>
+      <c r="AQ43" t="n">
+        <v>0.0881</v>
+      </c>
+      <c r="AR43" t="n">
+        <v>0.07108</v>
+      </c>
+      <c r="AS43" t="n">
+        <v>139.74</v>
+      </c>
+      <c r="AT43" t="n">
+        <v>131.815</v>
+      </c>
+      <c r="AU43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC43" t="n">
+        <v>24.48044</v>
+      </c>
+      <c r="BD43" t="n">
+        <v>160.5919</v>
+      </c>
+      <c r="BE43" t="inlineStr">
+        <is>
+          <t>Onshore</t>
+        </is>
+      </c>
+      <c r="BF43" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="BG43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH43" t="n">
+        <v>18.13441</v>
+      </c>
+      <c r="BI43" t="inlineStr">
+        <is>
+          <t>CLEAR</t>
+        </is>
+      </c>
+      <c r="BJ43" t="n">
+        <v>1014</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/pg_pysurfline.xlsx
+++ b/data/pg_pysurfline.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BJ43"/>
+  <dimension ref="A1:BJ46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8897,6 +8897,588 @@
         <v>1014</v>
       </c>
     </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45641.25</v>
+      </c>
+      <c r="B44" t="n">
+        <v>1734242400</v>
+      </c>
+      <c r="C44" t="n">
+        <v>100</v>
+      </c>
+      <c r="D44" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G44" t="n">
+        <v>2</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Waist to shoulder</t>
+        </is>
+      </c>
+      <c r="J44" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K44" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="L44" t="n">
+        <v>444.78461</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="N44" t="n">
+        <v>9</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0.8632</v>
+      </c>
+      <c r="P44" t="n">
+        <v>444.69491</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>72.18000000000001</v>
+      </c>
+      <c r="R44" t="n">
+        <v>58.91500000000001</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="U44" t="n">
+        <v>9</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0.0977</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0.0897</v>
+      </c>
+      <c r="X44" t="n">
+        <v>135.72</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>131.06</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC44" t="n">
+        <v>17.73394</v>
+      </c>
+      <c r="BD44" t="n">
+        <v>163.88252</v>
+      </c>
+      <c r="BE44" t="inlineStr">
+        <is>
+          <t>Onshore</t>
+        </is>
+      </c>
+      <c r="BF44" t="n">
+        <v>25.92</v>
+      </c>
+      <c r="BG44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH44" t="n">
+        <v>14.16809</v>
+      </c>
+      <c r="BI44" t="inlineStr">
+        <is>
+          <t>NIGHT_CLEAR</t>
+        </is>
+      </c>
+      <c r="BJ44" t="n">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45641.5</v>
+      </c>
+      <c r="B45" t="n">
+        <v>1734264000</v>
+      </c>
+      <c r="C45" t="n">
+        <v>100</v>
+      </c>
+      <c r="D45" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G45" t="n">
+        <v>2</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Waist to shoulder</t>
+        </is>
+      </c>
+      <c r="J45" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K45" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="L45" t="n">
+        <v>270.04342</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="U45" t="n">
+        <v>8</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0.0634</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0.04139</v>
+      </c>
+      <c r="X45" t="n">
+        <v>135.9</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>131.32</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>0.0125</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>0.02243</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>218.24</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>215.01</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>0.6194</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>226.93415</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>84.8</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>72.84</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="AP45" t="n">
+        <v>9</v>
+      </c>
+      <c r="AQ45" t="n">
+        <v>0.2906</v>
+      </c>
+      <c r="AR45" t="n">
+        <v>43.04545</v>
+      </c>
+      <c r="AS45" t="n">
+        <v>48.48</v>
+      </c>
+      <c r="AT45" t="n">
+        <v>43.875</v>
+      </c>
+      <c r="AU45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC45" t="n">
+        <v>21.84729</v>
+      </c>
+      <c r="BD45" t="n">
+        <v>161.46042</v>
+      </c>
+      <c r="BE45" t="inlineStr">
+        <is>
+          <t>Onshore</t>
+        </is>
+      </c>
+      <c r="BF45" t="n">
+        <v>29.1647</v>
+      </c>
+      <c r="BG45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH45" t="n">
+        <v>16.57451</v>
+      </c>
+      <c r="BI45" t="inlineStr">
+        <is>
+          <t>CLEAR</t>
+        </is>
+      </c>
+      <c r="BJ45" t="n">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45641.75</v>
+      </c>
+      <c r="B46" t="n">
+        <v>1734285600</v>
+      </c>
+      <c r="C46" t="n">
+        <v>100</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F46" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G46" t="n">
+        <v>2</v>
+      </c>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Waist to shoulder</t>
+        </is>
+      </c>
+      <c r="J46" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="K46" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="L46" t="n">
+        <v>292.42771</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="N46" t="n">
+        <v>9</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0.5689</v>
+      </c>
+      <c r="P46" t="n">
+        <v>250.98374</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>66.43000000000001</v>
+      </c>
+      <c r="R46" t="n">
+        <v>53.09500000000001</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
+        <v>0</v>
+      </c>
+      <c r="X46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>0.0148</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>0.03629</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>219.05</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>215.9</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>0.3946</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>41.40768</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>86.14</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>82.66500000000001</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC46" t="n">
+        <v>22.06826</v>
+      </c>
+      <c r="BD46" t="n">
+        <v>160.87256</v>
+      </c>
+      <c r="BE46" t="inlineStr">
+        <is>
+          <t>Onshore</t>
+        </is>
+      </c>
+      <c r="BF46" t="n">
+        <v>26.28002</v>
+      </c>
+      <c r="BG46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH46" t="n">
+        <v>17.04041</v>
+      </c>
+      <c r="BI46" t="inlineStr">
+        <is>
+          <t>CLEAR</t>
+        </is>
+      </c>
+      <c r="BJ46" t="n">
+        <v>1016</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/pg_pysurfline.xlsx
+++ b/data/pg_pysurfline.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BJ46"/>
+  <dimension ref="A1:BJ49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9479,6 +9479,588 @@
         <v>1016</v>
       </c>
     </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45642.25</v>
+      </c>
+      <c r="B47" t="n">
+        <v>1734328800</v>
+      </c>
+      <c r="C47" t="n">
+        <v>100</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G47" t="n">
+        <v>2</v>
+      </c>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Waist to chest</t>
+        </is>
+      </c>
+      <c r="J47" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K47" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L47" t="n">
+        <v>523.20057</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="N47" t="n">
+        <v>10</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0.9268999999999999</v>
+      </c>
+      <c r="P47" t="n">
+        <v>523.16132</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>66.84999999999999</v>
+      </c>
+      <c r="R47" t="n">
+        <v>55.755</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0</v>
+      </c>
+      <c r="T47" t="n">
+        <v>0</v>
+      </c>
+      <c r="U47" t="n">
+        <v>0</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="n">
+        <v>0</v>
+      </c>
+      <c r="X47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>0.0296</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>0.03925</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>216.79</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>211.62</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC47" t="n">
+        <v>12.00221</v>
+      </c>
+      <c r="BD47" t="n">
+        <v>144.39685</v>
+      </c>
+      <c r="BE47" t="inlineStr">
+        <is>
+          <t>Onshore</t>
+        </is>
+      </c>
+      <c r="BF47" t="n">
+        <v>15.87354</v>
+      </c>
+      <c r="BG47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH47" t="n">
+        <v>13.31439</v>
+      </c>
+      <c r="BI47" t="inlineStr">
+        <is>
+          <t>NIGHT_CLEAR</t>
+        </is>
+      </c>
+      <c r="BJ47" t="n">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45642.5</v>
+      </c>
+      <c r="B48" t="n">
+        <v>1734350400</v>
+      </c>
+      <c r="C48" t="n">
+        <v>100</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G48" t="n">
+        <v>2</v>
+      </c>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Waist to chest</t>
+        </is>
+      </c>
+      <c r="J48" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K48" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="L48" t="n">
+        <v>376.43024</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="N48" t="n">
+        <v>10</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0.7055</v>
+      </c>
+      <c r="P48" t="n">
+        <v>371.66822</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>65.45</v>
+      </c>
+      <c r="R48" t="n">
+        <v>54.38500000000001</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0</v>
+      </c>
+      <c r="T48" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="U48" t="n">
+        <v>9</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0.2493</v>
+      </c>
+      <c r="W48" t="n">
+        <v>4.74529</v>
+      </c>
+      <c r="X48" t="n">
+        <v>94.15000000000001</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>90.56500000000001</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>0.0197</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>0.01673</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>215.75</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>210.395</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC48" t="n">
+        <v>16.07736</v>
+      </c>
+      <c r="BD48" t="n">
+        <v>159.87786</v>
+      </c>
+      <c r="BE48" t="inlineStr">
+        <is>
+          <t>Onshore</t>
+        </is>
+      </c>
+      <c r="BF48" t="n">
+        <v>17.64</v>
+      </c>
+      <c r="BG48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH48" t="n">
+        <v>16.09189</v>
+      </c>
+      <c r="BI48" t="inlineStr">
+        <is>
+          <t>CLEAR</t>
+        </is>
+      </c>
+      <c r="BJ48" t="n">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45642.75</v>
+      </c>
+      <c r="B49" t="n">
+        <v>1734372000</v>
+      </c>
+      <c r="C49" t="n">
+        <v>100</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F49" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G49" t="n">
+        <v>2</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Waist to chest</t>
+        </is>
+      </c>
+      <c r="J49" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="K49" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="L49" t="n">
+        <v>501.82667</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="N49" t="n">
+        <v>10</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0.9338</v>
+      </c>
+      <c r="P49" t="n">
+        <v>501.80724</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>68.75</v>
+      </c>
+      <c r="R49" t="n">
+        <v>57.32</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0</v>
+      </c>
+      <c r="T49" t="n">
+        <v>0</v>
+      </c>
+      <c r="U49" t="n">
+        <v>0</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="n">
+        <v>0</v>
+      </c>
+      <c r="X49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>0.0241</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>0.01943</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>215.21</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>209.73</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC49" t="n">
+        <v>17.0531</v>
+      </c>
+      <c r="BD49" t="n">
+        <v>136.04811</v>
+      </c>
+      <c r="BE49" t="inlineStr">
+        <is>
+          <t>Onshore</t>
+        </is>
+      </c>
+      <c r="BF49" t="n">
+        <v>17.0531</v>
+      </c>
+      <c r="BG49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH49" t="n">
+        <v>17.48867</v>
+      </c>
+      <c r="BI49" t="inlineStr">
+        <is>
+          <t>CLEAR</t>
+        </is>
+      </c>
+      <c r="BJ49" t="n">
+        <v>1019</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/pg_pysurfline.xlsx
+++ b/data/pg_pysurfline.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BJ49"/>
+  <dimension ref="A1:BJ52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10061,6 +10061,588 @@
         <v>1019</v>
       </c>
     </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45643.25</v>
+      </c>
+      <c r="B50" t="n">
+        <v>1734415200</v>
+      </c>
+      <c r="C50" t="n">
+        <v>100</v>
+      </c>
+      <c r="D50" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F50" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G50" t="n">
+        <v>2</v>
+      </c>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Chest to overhead</t>
+        </is>
+      </c>
+      <c r="J50" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="K50" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="L50" t="n">
+        <v>792.20704</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="N50" t="n">
+        <v>10</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0.9557</v>
+      </c>
+      <c r="P50" t="n">
+        <v>792.20704</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>73.33</v>
+      </c>
+      <c r="R50" t="n">
+        <v>63.36</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0</v>
+      </c>
+      <c r="T50" t="n">
+        <v>0</v>
+      </c>
+      <c r="U50" t="n">
+        <v>0</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="n">
+        <v>0</v>
+      </c>
+      <c r="X50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC50" t="n">
+        <v>10.58046</v>
+      </c>
+      <c r="BD50" t="n">
+        <v>83.09162000000001</v>
+      </c>
+      <c r="BE50" t="inlineStr">
+        <is>
+          <t>Onshore</t>
+        </is>
+      </c>
+      <c r="BF50" t="n">
+        <v>12.96481</v>
+      </c>
+      <c r="BG50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH50" t="n">
+        <v>13.99223</v>
+      </c>
+      <c r="BI50" t="inlineStr">
+        <is>
+          <t>NIGHT_CLEAR</t>
+        </is>
+      </c>
+      <c r="BJ50" t="n">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45643.5</v>
+      </c>
+      <c r="B51" t="n">
+        <v>1734436800</v>
+      </c>
+      <c r="C51" t="n">
+        <v>100</v>
+      </c>
+      <c r="D51" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G51" t="n">
+        <v>2</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Chest to overhead</t>
+        </is>
+      </c>
+      <c r="J51" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="K51" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="L51" t="n">
+        <v>780.08341</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="N51" t="n">
+        <v>11</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0.9553</v>
+      </c>
+      <c r="P51" t="n">
+        <v>780.08341</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="R51" t="n">
+        <v>65.17500000000001</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0</v>
+      </c>
+      <c r="T51" t="n">
+        <v>0</v>
+      </c>
+      <c r="U51" t="n">
+        <v>0</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="n">
+        <v>0</v>
+      </c>
+      <c r="X51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC51" t="n">
+        <v>13.54277</v>
+      </c>
+      <c r="BD51" t="n">
+        <v>42.33615</v>
+      </c>
+      <c r="BE51" t="inlineStr">
+        <is>
+          <t>Onshore</t>
+        </is>
+      </c>
+      <c r="BF51" t="n">
+        <v>14.79282</v>
+      </c>
+      <c r="BG51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH51" t="n">
+        <v>16.42063</v>
+      </c>
+      <c r="BI51" t="inlineStr">
+        <is>
+          <t>CLEAR</t>
+        </is>
+      </c>
+      <c r="BJ51" t="n">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45643.75</v>
+      </c>
+      <c r="B52" t="n">
+        <v>1734458400</v>
+      </c>
+      <c r="C52" t="n">
+        <v>100</v>
+      </c>
+      <c r="D52" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E52" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F52" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G52" t="n">
+        <v>2</v>
+      </c>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Chest to head</t>
+        </is>
+      </c>
+      <c r="J52" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="K52" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="L52" t="n">
+        <v>649.34315</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="N52" t="n">
+        <v>11</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0.9525</v>
+      </c>
+      <c r="P52" t="n">
+        <v>649.34315</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>74.34</v>
+      </c>
+      <c r="R52" t="n">
+        <v>65.26000000000001</v>
+      </c>
+      <c r="S52" t="n">
+        <v>0</v>
+      </c>
+      <c r="T52" t="n">
+        <v>0</v>
+      </c>
+      <c r="U52" t="n">
+        <v>0</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="n">
+        <v>0</v>
+      </c>
+      <c r="X52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC52" t="n">
+        <v>28.28528</v>
+      </c>
+      <c r="BD52" t="n">
+        <v>66.09332999999999</v>
+      </c>
+      <c r="BE52" t="inlineStr">
+        <is>
+          <t>Onshore</t>
+        </is>
+      </c>
+      <c r="BF52" t="n">
+        <v>31.0962</v>
+      </c>
+      <c r="BG52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH52" t="n">
+        <v>17.85068</v>
+      </c>
+      <c r="BI52" t="inlineStr">
+        <is>
+          <t>CLEAR</t>
+        </is>
+      </c>
+      <c r="BJ52" t="n">
+        <v>1018</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/pg_pysurfline.xlsx
+++ b/data/pg_pysurfline.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BJ52"/>
+  <dimension ref="A1:BJ55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10643,6 +10643,588 @@
         <v>1018</v>
       </c>
     </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45644.25</v>
+      </c>
+      <c r="B53" t="n">
+        <v>1734501600</v>
+      </c>
+      <c r="C53" t="n">
+        <v>100</v>
+      </c>
+      <c r="D53" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F53" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G53" t="n">
+        <v>2</v>
+      </c>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Waist to shoulder</t>
+        </is>
+      </c>
+      <c r="J53" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K53" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="L53" t="n">
+        <v>389.91064</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N53" t="n">
+        <v>5</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0.07099999999999999</v>
+      </c>
+      <c r="P53" t="n">
+        <v>3.19417</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>20.28</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4.365000000000002</v>
+      </c>
+      <c r="S53" t="n">
+        <v>0</v>
+      </c>
+      <c r="T53" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="U53" t="n">
+        <v>10</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0.8894</v>
+      </c>
+      <c r="W53" t="n">
+        <v>386.71647</v>
+      </c>
+      <c r="X53" t="n">
+        <v>77.91</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>70.88</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC53" t="n">
+        <v>19.13794</v>
+      </c>
+      <c r="BD53" t="n">
+        <v>2.12165</v>
+      </c>
+      <c r="BE53" t="inlineStr">
+        <is>
+          <t>Cross-shore</t>
+        </is>
+      </c>
+      <c r="BF53" t="n">
+        <v>39.96</v>
+      </c>
+      <c r="BG53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH53" t="n">
+        <v>15.99449</v>
+      </c>
+      <c r="BI53" t="inlineStr">
+        <is>
+          <t>NIGHT_CLEAR</t>
+        </is>
+      </c>
+      <c r="BJ53" t="n">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45644.5</v>
+      </c>
+      <c r="B54" t="n">
+        <v>1734523200</v>
+      </c>
+      <c r="C54" t="n">
+        <v>100</v>
+      </c>
+      <c r="D54" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F54" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G54" t="n">
+        <v>2</v>
+      </c>
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Waist to chest</t>
+        </is>
+      </c>
+      <c r="J54" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="K54" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="L54" t="n">
+        <v>323.7332</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1</v>
+      </c>
+      <c r="N54" t="n">
+        <v>5</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>10.54</v>
+      </c>
+      <c r="R54" t="n">
+        <v>-7.095000000000002</v>
+      </c>
+      <c r="S54" t="n">
+        <v>0</v>
+      </c>
+      <c r="T54" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U54" t="n">
+        <v>10</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0.8721</v>
+      </c>
+      <c r="W54" t="n">
+        <v>323.47249</v>
+      </c>
+      <c r="X54" t="n">
+        <v>79.02</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>72.38</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>0.09719999999999999</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>0.26071</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>178.08</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>172.3</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC54" t="n">
+        <v>26.7086</v>
+      </c>
+      <c r="BD54" t="n">
+        <v>347.34027</v>
+      </c>
+      <c r="BE54" t="inlineStr">
+        <is>
+          <t>Cross-shore</t>
+        </is>
+      </c>
+      <c r="BF54" t="n">
+        <v>39.96576</v>
+      </c>
+      <c r="BG54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH54" t="n">
+        <v>20.53438</v>
+      </c>
+      <c r="BI54" t="inlineStr">
+        <is>
+          <t>CLEAR</t>
+        </is>
+      </c>
+      <c r="BJ54" t="n">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45644.75</v>
+      </c>
+      <c r="B55" t="n">
+        <v>1734544800</v>
+      </c>
+      <c r="C55" t="n">
+        <v>100</v>
+      </c>
+      <c r="D55" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G55" t="n">
+        <v>2</v>
+      </c>
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Waist to chest</t>
+        </is>
+      </c>
+      <c r="J55" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="K55" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="L55" t="n">
+        <v>232.76424</v>
+      </c>
+      <c r="M55" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N55" t="n">
+        <v>5</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0.0794</v>
+      </c>
+      <c r="P55" t="n">
+        <v>4.92749</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>20.47</v>
+      </c>
+      <c r="R55" t="n">
+        <v>4.694999999999999</v>
+      </c>
+      <c r="S55" t="n">
+        <v>0</v>
+      </c>
+      <c r="T55" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="U55" t="n">
+        <v>10</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0.7812</v>
+      </c>
+      <c r="W55" t="n">
+        <v>227.40443</v>
+      </c>
+      <c r="X55" t="n">
+        <v>80.31999999999999</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>73.505</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>0.1095</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>0.43232</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>177.52</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>172.215</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC55" t="n">
+        <v>31.47292</v>
+      </c>
+      <c r="BD55" t="n">
+        <v>38.50557</v>
+      </c>
+      <c r="BE55" t="inlineStr">
+        <is>
+          <t>Onshore</t>
+        </is>
+      </c>
+      <c r="BF55" t="n">
+        <v>37.08419</v>
+      </c>
+      <c r="BG55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH55" t="n">
+        <v>22.92305</v>
+      </c>
+      <c r="BI55" t="inlineStr">
+        <is>
+          <t>CLEAR</t>
+        </is>
+      </c>
+      <c r="BJ55" t="n">
+        <v>1010</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/pg_pysurfline.xlsx
+++ b/data/pg_pysurfline.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BJ55"/>
+  <dimension ref="A1:BJ58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11225,6 +11225,588 @@
         <v>1010</v>
       </c>
     </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45645.25</v>
+      </c>
+      <c r="B56" t="n">
+        <v>1734588000</v>
+      </c>
+      <c r="C56" t="n">
+        <v>100</v>
+      </c>
+      <c r="D56" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G56" t="n">
+        <v>2</v>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Thigh to waist</t>
+        </is>
+      </c>
+      <c r="J56" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="L56" t="n">
+        <v>127.39396</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N56" t="n">
+        <v>6</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0.09810000000000001</v>
+      </c>
+      <c r="P56" t="n">
+        <v>7.31263</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>22.07</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4.684999999999999</v>
+      </c>
+      <c r="S56" t="n">
+        <v>0</v>
+      </c>
+      <c r="T56" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="U56" t="n">
+        <v>9</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0.7558</v>
+      </c>
+      <c r="W56" t="n">
+        <v>119.85082</v>
+      </c>
+      <c r="X56" t="n">
+        <v>79.56999999999999</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>72.88</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>0.1101</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>0.23051</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>180.79</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>174.71</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC56" t="n">
+        <v>9.98326</v>
+      </c>
+      <c r="BD56" t="n">
+        <v>341.27378</v>
+      </c>
+      <c r="BE56" t="inlineStr">
+        <is>
+          <t>Offshore</t>
+        </is>
+      </c>
+      <c r="BF56" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="BG56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH56" t="n">
+        <v>18.25305</v>
+      </c>
+      <c r="BI56" t="inlineStr">
+        <is>
+          <t>NIGHT_CLOUDY</t>
+        </is>
+      </c>
+      <c r="BJ56" t="n">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45645.5</v>
+      </c>
+      <c r="B57" t="n">
+        <v>1734609600</v>
+      </c>
+      <c r="C57" t="n">
+        <v>100</v>
+      </c>
+      <c r="D57" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G57" t="n">
+        <v>2</v>
+      </c>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Thigh to waist</t>
+        </is>
+      </c>
+      <c r="J57" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="L57" t="n">
+        <v>97.76974</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="N57" t="n">
+        <v>4</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0.1467</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0.50924</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>173.71</v>
+      </c>
+      <c r="R57" t="n">
+        <v>159.575</v>
+      </c>
+      <c r="S57" t="n">
+        <v>0</v>
+      </c>
+      <c r="T57" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="U57" t="n">
+        <v>9</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0.5914</v>
+      </c>
+      <c r="W57" t="n">
+        <v>92.75114000000001</v>
+      </c>
+      <c r="X57" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>74.19500000000001</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>0.1741</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>4.38983</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>39.93</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>24.23</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AI57" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL57" t="n">
+        <v>260.7</v>
+      </c>
+      <c r="AM57" t="n">
+        <v>252.115</v>
+      </c>
+      <c r="AN57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO57" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AP57" t="n">
+        <v>9</v>
+      </c>
+      <c r="AQ57" t="n">
+        <v>0.07829999999999999</v>
+      </c>
+      <c r="AR57" t="n">
+        <v>0.11953</v>
+      </c>
+      <c r="AS57" t="n">
+        <v>180.93</v>
+      </c>
+      <c r="AT57" t="n">
+        <v>175.11</v>
+      </c>
+      <c r="AU57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC57" t="n">
+        <v>4.84353</v>
+      </c>
+      <c r="BD57" t="n">
+        <v>241.49322</v>
+      </c>
+      <c r="BE57" t="inlineStr">
+        <is>
+          <t>Offshore</t>
+        </is>
+      </c>
+      <c r="BF57" t="n">
+        <v>6.13641</v>
+      </c>
+      <c r="BG57" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH57" t="n">
+        <v>19.87859</v>
+      </c>
+      <c r="BI57" t="inlineStr">
+        <is>
+          <t>CLEAR</t>
+        </is>
+      </c>
+      <c r="BJ57" t="n">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45645.75</v>
+      </c>
+      <c r="B58" t="n">
+        <v>1734631200</v>
+      </c>
+      <c r="C58" t="n">
+        <v>100</v>
+      </c>
+      <c r="D58" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G58" t="n">
+        <v>2</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>Thigh to waist</t>
+        </is>
+      </c>
+      <c r="J58" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="L58" t="n">
+        <v>133.67943</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="N58" t="n">
+        <v>8</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0.0936</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0.21077</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>50</v>
+      </c>
+      <c r="R58" t="n">
+        <v>50</v>
+      </c>
+      <c r="S58" t="n">
+        <v>0</v>
+      </c>
+      <c r="T58" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="U58" t="n">
+        <v>9</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0.7107</v>
+      </c>
+      <c r="W58" t="n">
+        <v>133.02932</v>
+      </c>
+      <c r="X58" t="n">
+        <v>69.83</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>57.705</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO58" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AP58" t="n">
+        <v>8</v>
+      </c>
+      <c r="AQ58" t="n">
+        <v>0.081</v>
+      </c>
+      <c r="AR58" t="n">
+        <v>0.07144</v>
+      </c>
+      <c r="AS58" t="n">
+        <v>178.49</v>
+      </c>
+      <c r="AT58" t="n">
+        <v>172.26</v>
+      </c>
+      <c r="AU58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV58" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AW58" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX58" t="n">
+        <v>0.0915</v>
+      </c>
+      <c r="AY58" t="n">
+        <v>0.3679</v>
+      </c>
+      <c r="AZ58" t="n">
+        <v>204</v>
+      </c>
+      <c r="BA58" t="n">
+        <v>186.53</v>
+      </c>
+      <c r="BB58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC58" t="n">
+        <v>18.82088</v>
+      </c>
+      <c r="BD58" t="n">
+        <v>109.35263</v>
+      </c>
+      <c r="BE58" t="inlineStr">
+        <is>
+          <t>Onshore</t>
+        </is>
+      </c>
+      <c r="BF58" t="n">
+        <v>18.82088</v>
+      </c>
+      <c r="BG58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH58" t="n">
+        <v>20.32475</v>
+      </c>
+      <c r="BI58" t="inlineStr">
+        <is>
+          <t>CLEAR</t>
+        </is>
+      </c>
+      <c r="BJ58" t="n">
+        <v>1008</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/pg_pysurfline.xlsx
+++ b/data/pg_pysurfline.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BJ58"/>
+  <dimension ref="A1:BJ61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11807,6 +11807,588 @@
         <v>1008</v>
       </c>
     </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45646.25</v>
+      </c>
+      <c r="B59" t="n">
+        <v>1734674400</v>
+      </c>
+      <c r="C59" t="n">
+        <v>90</v>
+      </c>
+      <c r="D59" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G59" t="n">
+        <v>2</v>
+      </c>
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>Thigh to waist</t>
+        </is>
+      </c>
+      <c r="J59" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="L59" t="n">
+        <v>72.61645</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="N59" t="n">
+        <v>6</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0.2574</v>
+      </c>
+      <c r="P59" t="n">
+        <v>24.39609</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>35.42</v>
+      </c>
+      <c r="R59" t="n">
+        <v>20.12</v>
+      </c>
+      <c r="S59" t="n">
+        <v>0</v>
+      </c>
+      <c r="T59" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="U59" t="n">
+        <v>9</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0.5249</v>
+      </c>
+      <c r="W59" t="n">
+        <v>42.98665</v>
+      </c>
+      <c r="X59" t="n">
+        <v>86.62</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>82</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>0.1072</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>5.14734</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>214.98</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>209.22</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO59" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AP59" t="n">
+        <v>10</v>
+      </c>
+      <c r="AQ59" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AR59" t="n">
+        <v>0.08637</v>
+      </c>
+      <c r="AS59" t="n">
+        <v>160.44</v>
+      </c>
+      <c r="AT59" t="n">
+        <v>156.59</v>
+      </c>
+      <c r="AU59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC59" t="n">
+        <v>20.45071</v>
+      </c>
+      <c r="BD59" t="n">
+        <v>313.60217</v>
+      </c>
+      <c r="BE59" t="inlineStr">
+        <is>
+          <t>Offshore</t>
+        </is>
+      </c>
+      <c r="BF59" t="n">
+        <v>46.08</v>
+      </c>
+      <c r="BG59" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH59" t="n">
+        <v>18.82531</v>
+      </c>
+      <c r="BI59" t="inlineStr">
+        <is>
+          <t>NIGHT_CLEAR</t>
+        </is>
+      </c>
+      <c r="BJ59" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45646.5</v>
+      </c>
+      <c r="B60" t="n">
+        <v>1734696000</v>
+      </c>
+      <c r="C60" t="n">
+        <v>63.33333333333333</v>
+      </c>
+      <c r="D60" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G60" t="n">
+        <v>2</v>
+      </c>
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>Thigh to waist</t>
+        </is>
+      </c>
+      <c r="J60" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L60" t="n">
+        <v>41.88946</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="N60" t="n">
+        <v>6</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0.1895</v>
+      </c>
+      <c r="P60" t="n">
+        <v>10.30856</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="R60" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>0</v>
+      </c>
+      <c r="T60" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="U60" t="n">
+        <v>8</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0.5226</v>
+      </c>
+      <c r="W60" t="n">
+        <v>30.1384</v>
+      </c>
+      <c r="X60" t="n">
+        <v>84.86</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>79.575</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>232.17</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>218.395</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO60" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AP60" t="n">
+        <v>10</v>
+      </c>
+      <c r="AQ60" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AR60" t="n">
+        <v>0.13187</v>
+      </c>
+      <c r="AS60" t="n">
+        <v>162.13</v>
+      </c>
+      <c r="AT60" t="n">
+        <v>157.765</v>
+      </c>
+      <c r="AU60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV60" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AW60" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX60" t="n">
+        <v>0.1663</v>
+      </c>
+      <c r="AY60" t="n">
+        <v>1.31063</v>
+      </c>
+      <c r="AZ60" t="n">
+        <v>53.32</v>
+      </c>
+      <c r="BA60" t="n">
+        <v>50.845</v>
+      </c>
+      <c r="BB60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC60" t="n">
+        <v>39.24721</v>
+      </c>
+      <c r="BD60" t="n">
+        <v>232.19271</v>
+      </c>
+      <c r="BE60" t="inlineStr">
+        <is>
+          <t>Offshore</t>
+        </is>
+      </c>
+      <c r="BF60" t="n">
+        <v>56.52597</v>
+      </c>
+      <c r="BG60" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH60" t="n">
+        <v>22.00008</v>
+      </c>
+      <c r="BI60" t="inlineStr">
+        <is>
+          <t>CLEAR</t>
+        </is>
+      </c>
+      <c r="BJ60" t="n">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45646.75</v>
+      </c>
+      <c r="B61" t="n">
+        <v>1734717600</v>
+      </c>
+      <c r="C61" t="n">
+        <v>93.33333333333331</v>
+      </c>
+      <c r="D61" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G61" t="n">
+        <v>2</v>
+      </c>
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>Thigh to waist</t>
+        </is>
+      </c>
+      <c r="J61" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="L61" t="n">
+        <v>22.45377</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="N61" t="n">
+        <v>8</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0.3624</v>
+      </c>
+      <c r="P61" t="n">
+        <v>8.05813</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>47.77</v>
+      </c>
+      <c r="R61" t="n">
+        <v>39.34</v>
+      </c>
+      <c r="S61" t="n">
+        <v>0</v>
+      </c>
+      <c r="T61" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="U61" t="n">
+        <v>8</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0.5829</v>
+      </c>
+      <c r="W61" t="n">
+        <v>14.39564</v>
+      </c>
+      <c r="X61" t="n">
+        <v>85.73</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>81.095</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>233.93</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>219.7</v>
+      </c>
+      <c r="AG61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC61" t="n">
+        <v>48.55427</v>
+      </c>
+      <c r="BD61" t="n">
+        <v>218.58013</v>
+      </c>
+      <c r="BE61" t="inlineStr">
+        <is>
+          <t>Offshore</t>
+        </is>
+      </c>
+      <c r="BF61" t="n">
+        <v>60.50667</v>
+      </c>
+      <c r="BG61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH61" t="n">
+        <v>18.55066</v>
+      </c>
+      <c r="BI61" t="inlineStr">
+        <is>
+          <t>CLEAR</t>
+        </is>
+      </c>
+      <c r="BJ61" t="n">
+        <v>1009</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/pg_pysurfline.xlsx
+++ b/data/pg_pysurfline.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BJ61"/>
+  <dimension ref="A1:BJ64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12389,6 +12389,588 @@
         <v>1009</v>
       </c>
     </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45647.25</v>
+      </c>
+      <c r="B62" t="n">
+        <v>1734760800</v>
+      </c>
+      <c r="C62" t="n">
+        <v>100</v>
+      </c>
+      <c r="D62" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F62" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G62" t="n">
+        <v>2</v>
+      </c>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>Waist to chest</t>
+        </is>
+      </c>
+      <c r="J62" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K62" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="L62" t="n">
+        <v>618.3670100000001</v>
+      </c>
+      <c r="M62" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="N62" t="n">
+        <v>9</v>
+      </c>
+      <c r="O62" t="n">
+        <v>0.4754</v>
+      </c>
+      <c r="P62" t="n">
+        <v>614.37312</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>213.47</v>
+      </c>
+      <c r="R62" t="n">
+        <v>198.735</v>
+      </c>
+      <c r="S62" t="n">
+        <v>0</v>
+      </c>
+      <c r="T62" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="U62" t="n">
+        <v>8</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0.2878</v>
+      </c>
+      <c r="W62" t="n">
+        <v>2.62385</v>
+      </c>
+      <c r="X62" t="n">
+        <v>82.20999999999999</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>77.41499999999999</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>0.1947</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>1.37004</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>53.08</v>
+      </c>
+      <c r="AF62" t="n">
+        <v>48.665</v>
+      </c>
+      <c r="AG62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC62" t="n">
+        <v>15.92999</v>
+      </c>
+      <c r="BD62" t="n">
+        <v>241.53791</v>
+      </c>
+      <c r="BE62" t="inlineStr">
+        <is>
+          <t>Offshore</t>
+        </is>
+      </c>
+      <c r="BF62" t="n">
+        <v>22.3218</v>
+      </c>
+      <c r="BG62" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH62" t="n">
+        <v>11.22609</v>
+      </c>
+      <c r="BI62" t="inlineStr">
+        <is>
+          <t>NIGHT_CLEAR</t>
+        </is>
+      </c>
+      <c r="BJ62" t="n">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45647.5</v>
+      </c>
+      <c r="B63" t="n">
+        <v>1734782400</v>
+      </c>
+      <c r="C63" t="n">
+        <v>100</v>
+      </c>
+      <c r="D63" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F63" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G63" t="n">
+        <v>2</v>
+      </c>
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>Thigh to stomach</t>
+        </is>
+      </c>
+      <c r="J63" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="K63" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="L63" t="n">
+        <v>498.42971</v>
+      </c>
+      <c r="M63" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="N63" t="n">
+        <v>9</v>
+      </c>
+      <c r="O63" t="n">
+        <v>0.617</v>
+      </c>
+      <c r="P63" t="n">
+        <v>494.27552</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>207.65</v>
+      </c>
+      <c r="R63" t="n">
+        <v>193.035</v>
+      </c>
+      <c r="S63" t="n">
+        <v>0</v>
+      </c>
+      <c r="T63" t="n">
+        <v>0</v>
+      </c>
+      <c r="U63" t="n">
+        <v>0</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="n">
+        <v>0</v>
+      </c>
+      <c r="X63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>0.3206</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>4.15419</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>63.07</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>54.7</v>
+      </c>
+      <c r="AG63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC63" t="n">
+        <v>16.21052</v>
+      </c>
+      <c r="BD63" t="n">
+        <v>204.91081</v>
+      </c>
+      <c r="BE63" t="inlineStr">
+        <is>
+          <t>Cross-shore</t>
+        </is>
+      </c>
+      <c r="BF63" t="n">
+        <v>21.96</v>
+      </c>
+      <c r="BG63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH63" t="n">
+        <v>15.40479</v>
+      </c>
+      <c r="BI63" t="inlineStr">
+        <is>
+          <t>CLEAR</t>
+        </is>
+      </c>
+      <c r="BJ63" t="n">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45647.75</v>
+      </c>
+      <c r="B64" t="n">
+        <v>1734804000</v>
+      </c>
+      <c r="C64" t="n">
+        <v>100</v>
+      </c>
+      <c r="D64" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G64" t="n">
+        <v>2</v>
+      </c>
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>Thigh to waist</t>
+        </is>
+      </c>
+      <c r="J64" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="L64" t="n">
+        <v>391.98357</v>
+      </c>
+      <c r="M64" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="N64" t="n">
+        <v>9</v>
+      </c>
+      <c r="O64" t="n">
+        <v>0.7018</v>
+      </c>
+      <c r="P64" t="n">
+        <v>389.1852</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>202.02</v>
+      </c>
+      <c r="R64" t="n">
+        <v>187.285</v>
+      </c>
+      <c r="S64" t="n">
+        <v>0</v>
+      </c>
+      <c r="T64" t="n">
+        <v>0</v>
+      </c>
+      <c r="U64" t="n">
+        <v>0</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="n">
+        <v>0</v>
+      </c>
+      <c r="X64" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>0.2445</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>2.79837</v>
+      </c>
+      <c r="AE64" t="n">
+        <v>60.06</v>
+      </c>
+      <c r="AF64" t="n">
+        <v>52.235</v>
+      </c>
+      <c r="AG64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC64" t="n">
+        <v>20.1162</v>
+      </c>
+      <c r="BD64" t="n">
+        <v>102.94275</v>
+      </c>
+      <c r="BE64" t="inlineStr">
+        <is>
+          <t>Onshore</t>
+        </is>
+      </c>
+      <c r="BF64" t="n">
+        <v>20.1162</v>
+      </c>
+      <c r="BG64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH64" t="n">
+        <v>16.06471</v>
+      </c>
+      <c r="BI64" t="inlineStr">
+        <is>
+          <t>CLEAR</t>
+        </is>
+      </c>
+      <c r="BJ64" t="n">
+        <v>1018</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/pg_pysurfline.xlsx
+++ b/data/pg_pysurfline.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BJ64"/>
+  <dimension ref="A1:BJ67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12971,6 +12971,588 @@
         <v>1018</v>
       </c>
     </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45648.25</v>
+      </c>
+      <c r="B65" t="n">
+        <v>1734847200</v>
+      </c>
+      <c r="C65" t="n">
+        <v>100</v>
+      </c>
+      <c r="D65" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G65" t="n">
+        <v>2</v>
+      </c>
+      <c r="H65" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>Thigh to waist</t>
+        </is>
+      </c>
+      <c r="J65" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="L65" t="n">
+        <v>174.28672</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="N65" t="n">
+        <v>4</v>
+      </c>
+      <c r="O65" t="n">
+        <v>0</v>
+      </c>
+      <c r="P65" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="R65" t="n">
+        <v>-13.72</v>
+      </c>
+      <c r="S65" t="n">
+        <v>0</v>
+      </c>
+      <c r="T65" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="U65" t="n">
+        <v>8</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0.1326</v>
+      </c>
+      <c r="W65" t="n">
+        <v>1.62948</v>
+      </c>
+      <c r="X65" t="n">
+        <v>52.53</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>47.51000000000001</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>0.2292</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>45.59518</v>
+      </c>
+      <c r="AE65" t="n">
+        <v>207.35</v>
+      </c>
+      <c r="AF65" t="n">
+        <v>200.53</v>
+      </c>
+      <c r="AG65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH65" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AI65" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ65" t="n">
+        <v>0.5011</v>
+      </c>
+      <c r="AK65" t="n">
+        <v>126.26517</v>
+      </c>
+      <c r="AL65" t="n">
+        <v>169.76</v>
+      </c>
+      <c r="AM65" t="n">
+        <v>161.11</v>
+      </c>
+      <c r="AN65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV65" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="AW65" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX65" t="n">
+        <v>0.1295</v>
+      </c>
+      <c r="AY65" t="n">
+        <v>0.79689</v>
+      </c>
+      <c r="AZ65" t="n">
+        <v>77.76000000000001</v>
+      </c>
+      <c r="BA65" t="n">
+        <v>74.06</v>
+      </c>
+      <c r="BB65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC65" t="n">
+        <v>22.97004</v>
+      </c>
+      <c r="BD65" t="n">
+        <v>3.37652</v>
+      </c>
+      <c r="BE65" t="inlineStr">
+        <is>
+          <t>Cross-shore</t>
+        </is>
+      </c>
+      <c r="BF65" t="n">
+        <v>39.63337</v>
+      </c>
+      <c r="BG65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH65" t="n">
+        <v>11.93197</v>
+      </c>
+      <c r="BI65" t="inlineStr">
+        <is>
+          <t>NIGHT_CLOUDY</t>
+        </is>
+      </c>
+      <c r="BJ65" t="n">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45648.5</v>
+      </c>
+      <c r="B66" t="n">
+        <v>1734868800</v>
+      </c>
+      <c r="C66" t="n">
+        <v>100</v>
+      </c>
+      <c r="D66" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G66" t="n">
+        <v>2</v>
+      </c>
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>Thigh to waist</t>
+        </is>
+      </c>
+      <c r="J66" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="L66" t="n">
+        <v>372.89635</v>
+      </c>
+      <c r="M66" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="N66" t="n">
+        <v>5</v>
+      </c>
+      <c r="O66" t="n">
+        <v>0</v>
+      </c>
+      <c r="P66" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>356.48</v>
+      </c>
+      <c r="R66" t="n">
+        <v>339.87</v>
+      </c>
+      <c r="S66" t="n">
+        <v>0</v>
+      </c>
+      <c r="T66" t="n">
+        <v>0</v>
+      </c>
+      <c r="U66" t="n">
+        <v>0</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="n">
+        <v>0</v>
+      </c>
+      <c r="X66" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO66" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AP66" t="n">
+        <v>10</v>
+      </c>
+      <c r="AQ66" t="n">
+        <v>0.9365</v>
+      </c>
+      <c r="AR66" t="n">
+        <v>372.89635</v>
+      </c>
+      <c r="AS66" t="n">
+        <v>189.76</v>
+      </c>
+      <c r="AT66" t="n">
+        <v>179.81</v>
+      </c>
+      <c r="AU66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC66" t="n">
+        <v>33.81678</v>
+      </c>
+      <c r="BD66" t="n">
+        <v>333.42691</v>
+      </c>
+      <c r="BE66" t="inlineStr">
+        <is>
+          <t>Offshore</t>
+        </is>
+      </c>
+      <c r="BF66" t="n">
+        <v>49.3703</v>
+      </c>
+      <c r="BG66" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH66" t="n">
+        <v>17.8859</v>
+      </c>
+      <c r="BI66" t="inlineStr">
+        <is>
+          <t>CLEAR</t>
+        </is>
+      </c>
+      <c r="BJ66" t="n">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45648.75</v>
+      </c>
+      <c r="B67" t="n">
+        <v>1734890400</v>
+      </c>
+      <c r="C67" t="n">
+        <v>83.33333333333334</v>
+      </c>
+      <c r="D67" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G67" t="n">
+        <v>2</v>
+      </c>
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>Thigh to waist</t>
+        </is>
+      </c>
+      <c r="J67" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="L67" t="n">
+        <v>237.78253</v>
+      </c>
+      <c r="M67" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N67" t="n">
+        <v>5</v>
+      </c>
+      <c r="O67" t="n">
+        <v>0</v>
+      </c>
+      <c r="P67" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>352.32</v>
+      </c>
+      <c r="R67" t="n">
+        <v>333.075</v>
+      </c>
+      <c r="S67" t="n">
+        <v>0</v>
+      </c>
+      <c r="T67" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="U67" t="n">
+        <v>8</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0.2808</v>
+      </c>
+      <c r="W67" t="n">
+        <v>5.64273</v>
+      </c>
+      <c r="X67" t="n">
+        <v>58.78</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>51.34</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO67" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AP67" t="n">
+        <v>10</v>
+      </c>
+      <c r="AQ67" t="n">
+        <v>0.6825</v>
+      </c>
+      <c r="AR67" t="n">
+        <v>232.1398</v>
+      </c>
+      <c r="AS67" t="n">
+        <v>190.44</v>
+      </c>
+      <c r="AT67" t="n">
+        <v>180.98</v>
+      </c>
+      <c r="AU67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ67" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA67" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB67" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC67" t="n">
+        <v>41.95872</v>
+      </c>
+      <c r="BD67" t="n">
+        <v>213.525</v>
+      </c>
+      <c r="BE67" t="inlineStr">
+        <is>
+          <t>Cross-shore</t>
+        </is>
+      </c>
+      <c r="BF67" t="n">
+        <v>49.01923</v>
+      </c>
+      <c r="BG67" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH67" t="n">
+        <v>22.89375</v>
+      </c>
+      <c r="BI67" t="inlineStr">
+        <is>
+          <t>CLEAR</t>
+        </is>
+      </c>
+      <c r="BJ67" t="n">
+        <v>1014</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/pg_pysurfline.xlsx
+++ b/data/pg_pysurfline.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BJ67"/>
+  <dimension ref="A1:BJ70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13553,6 +13553,588 @@
         <v>1014</v>
       </c>
     </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45649.25</v>
+      </c>
+      <c r="B68" t="n">
+        <v>1734933600</v>
+      </c>
+      <c r="C68" t="n">
+        <v>100</v>
+      </c>
+      <c r="D68" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G68" t="n">
+        <v>2</v>
+      </c>
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>Thigh to waist</t>
+        </is>
+      </c>
+      <c r="J68" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="L68" t="n">
+        <v>130.79823</v>
+      </c>
+      <c r="M68" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="N68" t="n">
+        <v>9</v>
+      </c>
+      <c r="O68" t="n">
+        <v>0.5753</v>
+      </c>
+      <c r="P68" t="n">
+        <v>127.04378</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>185.26</v>
+      </c>
+      <c r="R68" t="n">
+        <v>173.475</v>
+      </c>
+      <c r="S68" t="n">
+        <v>0</v>
+      </c>
+      <c r="T68" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="n">
+        <v>0</v>
+      </c>
+      <c r="X68" t="n">
+        <v>272.02</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>263.185</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA68" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="AB68" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC68" t="n">
+        <v>0.0755</v>
+      </c>
+      <c r="AD68" t="n">
+        <v>1.02514</v>
+      </c>
+      <c r="AE68" t="n">
+        <v>25.89</v>
+      </c>
+      <c r="AF68" t="n">
+        <v>16.85</v>
+      </c>
+      <c r="AG68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH68" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AI68" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ68" t="n">
+        <v>0.1898</v>
+      </c>
+      <c r="AK68" t="n">
+        <v>2.29988</v>
+      </c>
+      <c r="AL68" t="n">
+        <v>54.13</v>
+      </c>
+      <c r="AM68" t="n">
+        <v>48.39</v>
+      </c>
+      <c r="AN68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO68" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AP68" t="n">
+        <v>8</v>
+      </c>
+      <c r="AQ68" t="n">
+        <v>0.1486</v>
+      </c>
+      <c r="AR68" t="n">
+        <v>0.42943</v>
+      </c>
+      <c r="AS68" t="n">
+        <v>83.98</v>
+      </c>
+      <c r="AT68" t="n">
+        <v>80.925</v>
+      </c>
+      <c r="AU68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ68" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA68" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB68" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC68" t="n">
+        <v>10.64778</v>
+      </c>
+      <c r="BD68" t="n">
+        <v>352.8857</v>
+      </c>
+      <c r="BE68" t="inlineStr">
+        <is>
+          <t>Cross-shore</t>
+        </is>
+      </c>
+      <c r="BF68" t="n">
+        <v>14.0668</v>
+      </c>
+      <c r="BG68" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH68" t="n">
+        <v>14.45504</v>
+      </c>
+      <c r="BI68" t="inlineStr">
+        <is>
+          <t>NIGHT_CLEAR</t>
+        </is>
+      </c>
+      <c r="BJ68" t="n">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45649.5</v>
+      </c>
+      <c r="B69" t="n">
+        <v>1734955200</v>
+      </c>
+      <c r="C69" t="n">
+        <v>100</v>
+      </c>
+      <c r="D69" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G69" t="n">
+        <v>2</v>
+      </c>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>Thigh to waist</t>
+        </is>
+      </c>
+      <c r="J69" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="L69" t="n">
+        <v>117.38105</v>
+      </c>
+      <c r="M69" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N69" t="n">
+        <v>8</v>
+      </c>
+      <c r="O69" t="n">
+        <v>0.6564</v>
+      </c>
+      <c r="P69" t="n">
+        <v>113.47095</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>181.78</v>
+      </c>
+      <c r="R69" t="n">
+        <v>169.8</v>
+      </c>
+      <c r="S69" t="n">
+        <v>0</v>
+      </c>
+      <c r="T69" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="U69" t="n">
+        <v>4</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="n">
+        <v>0</v>
+      </c>
+      <c r="X69" t="n">
+        <v>268.62</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>262.05</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA69" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="AB69" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC69" t="n">
+        <v>0.0843</v>
+      </c>
+      <c r="AD69" t="n">
+        <v>1.05858</v>
+      </c>
+      <c r="AE69" t="n">
+        <v>22.52</v>
+      </c>
+      <c r="AF69" t="n">
+        <v>12.355</v>
+      </c>
+      <c r="AG69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH69" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AI69" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ69" t="n">
+        <v>0.2347</v>
+      </c>
+      <c r="AK69" t="n">
+        <v>2.85152</v>
+      </c>
+      <c r="AL69" t="n">
+        <v>58.2</v>
+      </c>
+      <c r="AM69" t="n">
+        <v>50.61</v>
+      </c>
+      <c r="AN69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC69" t="n">
+        <v>15.07614</v>
+      </c>
+      <c r="BD69" t="n">
+        <v>343.59609</v>
+      </c>
+      <c r="BE69" t="inlineStr">
+        <is>
+          <t>Offshore</t>
+        </is>
+      </c>
+      <c r="BF69" t="n">
+        <v>24.48185</v>
+      </c>
+      <c r="BG69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH69" t="n">
+        <v>19.30266</v>
+      </c>
+      <c r="BI69" t="inlineStr">
+        <is>
+          <t>CLEAR</t>
+        </is>
+      </c>
+      <c r="BJ69" t="n">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45649.75</v>
+      </c>
+      <c r="B70" t="n">
+        <v>1734976800</v>
+      </c>
+      <c r="C70" t="n">
+        <v>100</v>
+      </c>
+      <c r="D70" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G70" t="n">
+        <v>2</v>
+      </c>
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>Knee to thigh</t>
+        </is>
+      </c>
+      <c r="J70" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="L70" t="n">
+        <v>46.11803</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="N70" t="n">
+        <v>8</v>
+      </c>
+      <c r="O70" t="n">
+        <v>0.1516</v>
+      </c>
+      <c r="P70" t="n">
+        <v>6.35002</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>204.36</v>
+      </c>
+      <c r="R70" t="n">
+        <v>199.535</v>
+      </c>
+      <c r="S70" t="n">
+        <v>0</v>
+      </c>
+      <c r="T70" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="U70" t="n">
+        <v>13</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0.0877</v>
+      </c>
+      <c r="W70" t="n">
+        <v>0.07486</v>
+      </c>
+      <c r="X70" t="n">
+        <v>135.74</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>132.075</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA70" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="AB70" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC70" t="n">
+        <v>0.0615</v>
+      </c>
+      <c r="AD70" t="n">
+        <v>0.55359</v>
+      </c>
+      <c r="AE70" t="n">
+        <v>23.28</v>
+      </c>
+      <c r="AF70" t="n">
+        <v>9.565000000000001</v>
+      </c>
+      <c r="AG70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH70" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="AI70" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ70" t="n">
+        <v>0.1546</v>
+      </c>
+      <c r="AK70" t="n">
+        <v>1.71968</v>
+      </c>
+      <c r="AL70" t="n">
+        <v>56.13</v>
+      </c>
+      <c r="AM70" t="n">
+        <v>48.735</v>
+      </c>
+      <c r="AN70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO70" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AP70" t="n">
+        <v>8</v>
+      </c>
+      <c r="AQ70" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="AR70" t="n">
+        <v>37.15399</v>
+      </c>
+      <c r="AS70" t="n">
+        <v>169.69</v>
+      </c>
+      <c r="AT70" t="n">
+        <v>160.11</v>
+      </c>
+      <c r="AU70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV70" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AW70" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX70" t="n">
+        <v>0.1195</v>
+      </c>
+      <c r="AY70" t="n">
+        <v>0.26589</v>
+      </c>
+      <c r="AZ70" t="n">
+        <v>132.93</v>
+      </c>
+      <c r="BA70" t="n">
+        <v>130.335</v>
+      </c>
+      <c r="BB70" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC70" t="n">
+        <v>18.47562</v>
+      </c>
+      <c r="BD70" t="n">
+        <v>335.94065</v>
+      </c>
+      <c r="BE70" t="inlineStr">
+        <is>
+          <t>Offshore</t>
+        </is>
+      </c>
+      <c r="BF70" t="n">
+        <v>29.5648</v>
+      </c>
+      <c r="BG70" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH70" t="n">
+        <v>25.58281</v>
+      </c>
+      <c r="BI70" t="inlineStr">
+        <is>
+          <t>CLOUDY</t>
+        </is>
+      </c>
+      <c r="BJ70" t="n">
+        <v>1010</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/pg_pysurfline.xlsx
+++ b/data/pg_pysurfline.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BJ70"/>
+  <dimension ref="A1:BJ73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14135,6 +14135,588 @@
         <v>1010</v>
       </c>
     </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>45651.25</v>
+      </c>
+      <c r="B71" t="n">
+        <v>1735106400</v>
+      </c>
+      <c r="C71" t="n">
+        <v>100</v>
+      </c>
+      <c r="D71" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G71" t="n">
+        <v>2</v>
+      </c>
+      <c r="H71" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>Thigh to waist</t>
+        </is>
+      </c>
+      <c r="J71" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="L71" t="n">
+        <v>181.9203</v>
+      </c>
+      <c r="M71" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="N71" t="n">
+        <v>8</v>
+      </c>
+      <c r="O71" t="n">
+        <v>0.2765</v>
+      </c>
+      <c r="P71" t="n">
+        <v>126.03338</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>209.23</v>
+      </c>
+      <c r="R71" t="n">
+        <v>193.32</v>
+      </c>
+      <c r="S71" t="n">
+        <v>0</v>
+      </c>
+      <c r="T71" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="U71" t="n">
+        <v>10</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0.4813</v>
+      </c>
+      <c r="W71" t="n">
+        <v>48.67021</v>
+      </c>
+      <c r="X71" t="n">
+        <v>142.33</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>138.835</v>
+      </c>
+      <c r="Z71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO71" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="AP71" t="n">
+        <v>8</v>
+      </c>
+      <c r="AQ71" t="n">
+        <v>0.2171</v>
+      </c>
+      <c r="AR71" t="n">
+        <v>7.21671</v>
+      </c>
+      <c r="AS71" t="n">
+        <v>52.76</v>
+      </c>
+      <c r="AT71" t="n">
+        <v>45.69</v>
+      </c>
+      <c r="AU71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC71" t="n">
+        <v>27.22951</v>
+      </c>
+      <c r="BD71" t="n">
+        <v>199.6721</v>
+      </c>
+      <c r="BE71" t="inlineStr">
+        <is>
+          <t>Cross-shore</t>
+        </is>
+      </c>
+      <c r="BF71" t="n">
+        <v>33.86131</v>
+      </c>
+      <c r="BG71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH71" t="n">
+        <v>15.01871</v>
+      </c>
+      <c r="BI71" t="inlineStr">
+        <is>
+          <t>NIGHT_DRIZZLE</t>
+        </is>
+      </c>
+      <c r="BJ71" t="n">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>45651.5</v>
+      </c>
+      <c r="B72" t="n">
+        <v>1735128000</v>
+      </c>
+      <c r="C72" t="n">
+        <v>100</v>
+      </c>
+      <c r="D72" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F72" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G72" t="n">
+        <v>2</v>
+      </c>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>Thigh to stomach</t>
+        </is>
+      </c>
+      <c r="J72" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="K72" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="L72" t="n">
+        <v>406.89144</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0</v>
+      </c>
+      <c r="O72" t="n">
+        <v>0</v>
+      </c>
+      <c r="P72" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>0</v>
+      </c>
+      <c r="R72" t="n">
+        <v>0</v>
+      </c>
+      <c r="S72" t="n">
+        <v>0</v>
+      </c>
+      <c r="T72" t="n">
+        <v>0</v>
+      </c>
+      <c r="U72" t="n">
+        <v>0</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="n">
+        <v>0</v>
+      </c>
+      <c r="X72" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO72" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="AP72" t="n">
+        <v>8</v>
+      </c>
+      <c r="AQ72" t="n">
+        <v>0.2666</v>
+      </c>
+      <c r="AR72" t="n">
+        <v>9.28834</v>
+      </c>
+      <c r="AS72" t="n">
+        <v>53.61</v>
+      </c>
+      <c r="AT72" t="n">
+        <v>47.32</v>
+      </c>
+      <c r="AU72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV72" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AW72" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX72" t="n">
+        <v>0.6932</v>
+      </c>
+      <c r="AY72" t="n">
+        <v>397.6031</v>
+      </c>
+      <c r="AZ72" t="n">
+        <v>191.96</v>
+      </c>
+      <c r="BA72" t="n">
+        <v>173.975</v>
+      </c>
+      <c r="BB72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC72" t="n">
+        <v>26.6304</v>
+      </c>
+      <c r="BD72" t="n">
+        <v>181.72223</v>
+      </c>
+      <c r="BE72" t="inlineStr">
+        <is>
+          <t>Cross-shore</t>
+        </is>
+      </c>
+      <c r="BF72" t="n">
+        <v>34.2215</v>
+      </c>
+      <c r="BG72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH72" t="n">
+        <v>15.98654</v>
+      </c>
+      <c r="BI72" t="inlineStr">
+        <is>
+          <t>LIGHT_SHOWERS</t>
+        </is>
+      </c>
+      <c r="BJ72" t="n">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>45651.75</v>
+      </c>
+      <c r="B73" t="n">
+        <v>1735149600</v>
+      </c>
+      <c r="C73" t="n">
+        <v>100</v>
+      </c>
+      <c r="D73" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F73" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G73" t="n">
+        <v>2</v>
+      </c>
+      <c r="H73" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>Thigh to stomach</t>
+        </is>
+      </c>
+      <c r="J73" t="n">
+        <v>1</v>
+      </c>
+      <c r="K73" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="L73" t="n">
+        <v>369.85652</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0</v>
+      </c>
+      <c r="O73" t="n">
+        <v>0</v>
+      </c>
+      <c r="P73" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>0</v>
+      </c>
+      <c r="R73" t="n">
+        <v>0</v>
+      </c>
+      <c r="S73" t="n">
+        <v>0</v>
+      </c>
+      <c r="T73" t="n">
+        <v>0</v>
+      </c>
+      <c r="U73" t="n">
+        <v>0</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="n">
+        <v>0</v>
+      </c>
+      <c r="X73" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO73" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="AP73" t="n">
+        <v>8</v>
+      </c>
+      <c r="AQ73" t="n">
+        <v>0.2251</v>
+      </c>
+      <c r="AR73" t="n">
+        <v>5.95625</v>
+      </c>
+      <c r="AS73" t="n">
+        <v>53.87</v>
+      </c>
+      <c r="AT73" t="n">
+        <v>48.22</v>
+      </c>
+      <c r="AU73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV73" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AW73" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX73" t="n">
+        <v>0.7373</v>
+      </c>
+      <c r="AY73" t="n">
+        <v>363.90027</v>
+      </c>
+      <c r="AZ73" t="n">
+        <v>180.72</v>
+      </c>
+      <c r="BA73" t="n">
+        <v>162.49</v>
+      </c>
+      <c r="BB73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC73" t="n">
+        <v>32.70343</v>
+      </c>
+      <c r="BD73" t="n">
+        <v>169.5837</v>
+      </c>
+      <c r="BE73" t="inlineStr">
+        <is>
+          <t>Cross-shore</t>
+        </is>
+      </c>
+      <c r="BF73" t="n">
+        <v>38.16537</v>
+      </c>
+      <c r="BG73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH73" t="n">
+        <v>16.95898</v>
+      </c>
+      <c r="BI73" t="inlineStr">
+        <is>
+          <t>MOSTLY_CLEAR</t>
+        </is>
+      </c>
+      <c r="BJ73" t="n">
+        <v>1017</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/pg_pysurfline.xlsx
+++ b/data/pg_pysurfline.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BJ73"/>
+  <dimension ref="A1:BJ76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14717,6 +14717,588 @@
         <v>1017</v>
       </c>
     </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>45652.25</v>
+      </c>
+      <c r="B74" t="n">
+        <v>1735192800</v>
+      </c>
+      <c r="C74" t="n">
+        <v>100</v>
+      </c>
+      <c r="D74" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F74" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G74" t="n">
+        <v>2</v>
+      </c>
+      <c r="H74" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>Waist to chest</t>
+        </is>
+      </c>
+      <c r="J74" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="K74" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="L74" t="n">
+        <v>138.86921</v>
+      </c>
+      <c r="M74" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N74" t="n">
+        <v>7</v>
+      </c>
+      <c r="O74" t="n">
+        <v>0.5988</v>
+      </c>
+      <c r="P74" t="n">
+        <v>115.17128</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>140.86</v>
+      </c>
+      <c r="R74" t="n">
+        <v>129.045</v>
+      </c>
+      <c r="S74" t="n">
+        <v>0</v>
+      </c>
+      <c r="T74" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="U74" t="n">
+        <v>7</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0.1736</v>
+      </c>
+      <c r="W74" t="n">
+        <v>15.64833</v>
+      </c>
+      <c r="X74" t="n">
+        <v>205.59</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>197.315</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA74" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AB74" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC74" t="n">
+        <v>0.2054</v>
+      </c>
+      <c r="AD74" t="n">
+        <v>8.0496</v>
+      </c>
+      <c r="AE74" t="n">
+        <v>55.89</v>
+      </c>
+      <c r="AF74" t="n">
+        <v>50.1</v>
+      </c>
+      <c r="AG74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC74" t="n">
+        <v>22.9722</v>
+      </c>
+      <c r="BD74" t="n">
+        <v>168.42539</v>
+      </c>
+      <c r="BE74" t="inlineStr">
+        <is>
+          <t>Cross-shore</t>
+        </is>
+      </c>
+      <c r="BF74" t="n">
+        <v>28.46674</v>
+      </c>
+      <c r="BG74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH74" t="n">
+        <v>15.39969</v>
+      </c>
+      <c r="BI74" t="inlineStr">
+        <is>
+          <t>NIGHT_CLOUDY</t>
+        </is>
+      </c>
+      <c r="BJ74" t="n">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>45652.5</v>
+      </c>
+      <c r="B75" t="n">
+        <v>1735214400</v>
+      </c>
+      <c r="C75" t="n">
+        <v>100</v>
+      </c>
+      <c r="D75" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F75" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G75" t="n">
+        <v>2</v>
+      </c>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>Thigh to stomach</t>
+        </is>
+      </c>
+      <c r="J75" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="K75" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="L75" t="n">
+        <v>91.37701</v>
+      </c>
+      <c r="M75" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="N75" t="n">
+        <v>7</v>
+      </c>
+      <c r="O75" t="n">
+        <v>0.3881</v>
+      </c>
+      <c r="P75" t="n">
+        <v>47.48429</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>136.57</v>
+      </c>
+      <c r="R75" t="n">
+        <v>122.74</v>
+      </c>
+      <c r="S75" t="n">
+        <v>0</v>
+      </c>
+      <c r="T75" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="U75" t="n">
+        <v>7</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0.107</v>
+      </c>
+      <c r="W75" t="n">
+        <v>5.66648</v>
+      </c>
+      <c r="X75" t="n">
+        <v>204.99</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>197.34</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA75" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="AB75" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC75" t="n">
+        <v>0.236</v>
+      </c>
+      <c r="AD75" t="n">
+        <v>22.40388</v>
+      </c>
+      <c r="AE75" t="n">
+        <v>58.66</v>
+      </c>
+      <c r="AF75" t="n">
+        <v>53.25</v>
+      </c>
+      <c r="AG75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO75" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="AP75" t="n">
+        <v>9</v>
+      </c>
+      <c r="AQ75" t="n">
+        <v>0.2578</v>
+      </c>
+      <c r="AR75" t="n">
+        <v>15.82236</v>
+      </c>
+      <c r="AS75" t="n">
+        <v>147.79</v>
+      </c>
+      <c r="AT75" t="n">
+        <v>143.615</v>
+      </c>
+      <c r="AU75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC75" t="n">
+        <v>19.01413</v>
+      </c>
+      <c r="BD75" t="n">
+        <v>157.74525</v>
+      </c>
+      <c r="BE75" t="inlineStr">
+        <is>
+          <t>Onshore</t>
+        </is>
+      </c>
+      <c r="BF75" t="n">
+        <v>22.0089</v>
+      </c>
+      <c r="BG75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH75" t="n">
+        <v>16.6298</v>
+      </c>
+      <c r="BI75" t="inlineStr">
+        <is>
+          <t>CLOUDY</t>
+        </is>
+      </c>
+      <c r="BJ75" t="n">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>45652.75</v>
+      </c>
+      <c r="B76" t="n">
+        <v>1735236000</v>
+      </c>
+      <c r="C76" t="n">
+        <v>100</v>
+      </c>
+      <c r="D76" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F76" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G76" t="n">
+        <v>2</v>
+      </c>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>Waist to chest</t>
+        </is>
+      </c>
+      <c r="J76" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K76" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="L76" t="n">
+        <v>144.59129</v>
+      </c>
+      <c r="M76" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N76" t="n">
+        <v>6</v>
+      </c>
+      <c r="O76" t="n">
+        <v>0.446</v>
+      </c>
+      <c r="P76" t="n">
+        <v>47.90998</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>144.22</v>
+      </c>
+      <c r="R76" t="n">
+        <v>134.39</v>
+      </c>
+      <c r="S76" t="n">
+        <v>0</v>
+      </c>
+      <c r="T76" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="U76" t="n">
+        <v>7</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0.1035</v>
+      </c>
+      <c r="W76" t="n">
+        <v>2.82525</v>
+      </c>
+      <c r="X76" t="n">
+        <v>206.37</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>199.315</v>
+      </c>
+      <c r="Z76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA76" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AB76" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC76" t="n">
+        <v>0.4297</v>
+      </c>
+      <c r="AD76" t="n">
+        <v>93.85606</v>
+      </c>
+      <c r="AE76" t="n">
+        <v>64.14</v>
+      </c>
+      <c r="AF76" t="n">
+        <v>57.265</v>
+      </c>
+      <c r="AG76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC76" t="n">
+        <v>19.15488</v>
+      </c>
+      <c r="BD76" t="n">
+        <v>151.45962</v>
+      </c>
+      <c r="BE76" t="inlineStr">
+        <is>
+          <t>Onshore</t>
+        </is>
+      </c>
+      <c r="BF76" t="n">
+        <v>19.15488</v>
+      </c>
+      <c r="BG76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH76" t="n">
+        <v>18.64518</v>
+      </c>
+      <c r="BI76" t="inlineStr">
+        <is>
+          <t>CLEAR</t>
+        </is>
+      </c>
+      <c r="BJ76" t="n">
+        <v>1014</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/pg_pysurfline.xlsx
+++ b/data/pg_pysurfline.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BJ76"/>
+  <dimension ref="A1:BJ79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15299,6 +15299,588 @@
         <v>1014</v>
       </c>
     </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>45654.25</v>
+      </c>
+      <c r="B77" t="n">
+        <v>1735365600</v>
+      </c>
+      <c r="C77" t="n">
+        <v>100</v>
+      </c>
+      <c r="D77" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E77" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F77" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G77" t="n">
+        <v>2</v>
+      </c>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>Chest to head</t>
+        </is>
+      </c>
+      <c r="J77" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="K77" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="L77" t="n">
+        <v>482.15385</v>
+      </c>
+      <c r="M77" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="N77" t="n">
+        <v>9</v>
+      </c>
+      <c r="O77" t="n">
+        <v>0.928</v>
+      </c>
+      <c r="P77" t="n">
+        <v>482.12296</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>102.99</v>
+      </c>
+      <c r="R77" t="n">
+        <v>89.82499999999999</v>
+      </c>
+      <c r="S77" t="n">
+        <v>0</v>
+      </c>
+      <c r="T77" t="n">
+        <v>0</v>
+      </c>
+      <c r="U77" t="n">
+        <v>0</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="n">
+        <v>0</v>
+      </c>
+      <c r="X77" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y77" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA77" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AB77" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC77" t="n">
+        <v>0.0384</v>
+      </c>
+      <c r="AD77" t="n">
+        <v>0.03089</v>
+      </c>
+      <c r="AE77" t="n">
+        <v>200.3</v>
+      </c>
+      <c r="AF77" t="n">
+        <v>196.84</v>
+      </c>
+      <c r="AG77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC77" t="n">
+        <v>13.03058</v>
+      </c>
+      <c r="BD77" t="n">
+        <v>158.96688</v>
+      </c>
+      <c r="BE77" t="inlineStr">
+        <is>
+          <t>Onshore</t>
+        </is>
+      </c>
+      <c r="BF77" t="n">
+        <v>19.47948</v>
+      </c>
+      <c r="BG77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH77" t="n">
+        <v>15.29371</v>
+      </c>
+      <c r="BI77" t="inlineStr">
+        <is>
+          <t>NIGHT_CLEAR</t>
+        </is>
+      </c>
+      <c r="BJ77" t="n">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>45654.5</v>
+      </c>
+      <c r="B78" t="n">
+        <v>1735387200</v>
+      </c>
+      <c r="C78" t="n">
+        <v>100</v>
+      </c>
+      <c r="D78" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E78" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F78" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G78" t="n">
+        <v>2</v>
+      </c>
+      <c r="H78" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>Chest to head</t>
+        </is>
+      </c>
+      <c r="J78" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="K78" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="L78" t="n">
+        <v>405.60621</v>
+      </c>
+      <c r="M78" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="N78" t="n">
+        <v>9</v>
+      </c>
+      <c r="O78" t="n">
+        <v>0.9539</v>
+      </c>
+      <c r="P78" t="n">
+        <v>405.60621</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>105.29</v>
+      </c>
+      <c r="R78" t="n">
+        <v>92.185</v>
+      </c>
+      <c r="S78" t="n">
+        <v>0</v>
+      </c>
+      <c r="T78" t="n">
+        <v>0</v>
+      </c>
+      <c r="U78" t="n">
+        <v>0</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="n">
+        <v>0</v>
+      </c>
+      <c r="X78" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y78" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC78" t="n">
+        <v>12.0781</v>
+      </c>
+      <c r="BD78" t="n">
+        <v>143.95433</v>
+      </c>
+      <c r="BE78" t="inlineStr">
+        <is>
+          <t>Onshore</t>
+        </is>
+      </c>
+      <c r="BF78" t="n">
+        <v>13.68</v>
+      </c>
+      <c r="BG78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH78" t="n">
+        <v>17.71398</v>
+      </c>
+      <c r="BI78" t="inlineStr">
+        <is>
+          <t>CLEAR</t>
+        </is>
+      </c>
+      <c r="BJ78" t="n">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>45654.75</v>
+      </c>
+      <c r="B79" t="n">
+        <v>1735408800</v>
+      </c>
+      <c r="C79" t="n">
+        <v>100</v>
+      </c>
+      <c r="D79" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E79" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F79" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G79" t="n">
+        <v>2</v>
+      </c>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>Chest to head</t>
+        </is>
+      </c>
+      <c r="J79" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="K79" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="L79" t="n">
+        <v>312.17746</v>
+      </c>
+      <c r="M79" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="N79" t="n">
+        <v>8</v>
+      </c>
+      <c r="O79" t="n">
+        <v>0.846</v>
+      </c>
+      <c r="P79" t="n">
+        <v>311.84095</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>105.85</v>
+      </c>
+      <c r="R79" t="n">
+        <v>93.405</v>
+      </c>
+      <c r="S79" t="n">
+        <v>0</v>
+      </c>
+      <c r="T79" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="U79" t="n">
+        <v>10</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0.1198</v>
+      </c>
+      <c r="W79" t="n">
+        <v>0.33651</v>
+      </c>
+      <c r="X79" t="n">
+        <v>140</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>140</v>
+      </c>
+      <c r="Z79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC79" t="n">
+        <v>17.00472</v>
+      </c>
+      <c r="BD79" t="n">
+        <v>121.30653</v>
+      </c>
+      <c r="BE79" t="inlineStr">
+        <is>
+          <t>Onshore</t>
+        </is>
+      </c>
+      <c r="BF79" t="n">
+        <v>17.00472</v>
+      </c>
+      <c r="BG79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH79" t="n">
+        <v>18.5158</v>
+      </c>
+      <c r="BI79" t="inlineStr">
+        <is>
+          <t>CLEAR</t>
+        </is>
+      </c>
+      <c r="BJ79" t="n">
+        <v>1020</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
